--- a/decks/전급수_학습하기/N4N5_조수사_실전숫자읽기용_438.xlsx
+++ b/decks/전급수_학습하기/N4N5_조수사_실전숫자읽기용_438.xlsx
@@ -37,6 +37,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>一十</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>よんじゅう</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>五十</t>
@@ -3829,7 +3829,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[h]&quot;시간&quot;"/>
+    <numFmt numFmtId="59" formatCode="[h]"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -5270,8 +5270,8 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.0234" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.9062" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" customWidth="1"/>
     <col min="6" max="9" width="16.3516" style="1" customWidth="1"/>
     <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -5310,7 +5310,9 @@
       <c r="D2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" t="s" s="9">
+        <v>8</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -5321,15 +5323,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -5340,15 +5344,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -5359,15 +5365,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -5378,16 +5386,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="17">
         <v>40</v>
       </c>
       <c r="E6" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -5408,7 +5416,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -5429,7 +5437,7 @@
         <v>60</v>
       </c>
       <c r="E8" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -5450,7 +5458,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -5471,7 +5479,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -5492,7 +5500,7 @@
         <v>90</v>
       </c>
       <c r="E11" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -5513,7 +5521,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -5534,7 +5542,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -5554,7 +5562,9 @@
       <c r="D14" t="s" s="18">
         <v>38</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -5574,7 +5584,7 @@
         <v>200</v>
       </c>
       <c r="E15" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -5595,7 +5605,7 @@
         <v>300</v>
       </c>
       <c r="E16" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -5616,7 +5626,7 @@
         <v>400</v>
       </c>
       <c r="E17" t="s" s="23">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -5637,7 +5647,7 @@
         <v>500</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -5658,7 +5668,7 @@
         <v>600</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -5679,7 +5689,7 @@
         <v>700</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -5700,7 +5710,7 @@
         <v>800</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -5721,7 +5731,7 @@
         <v>900</v>
       </c>
       <c r="E22" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -5742,7 +5752,7 @@
         <v>57</v>
       </c>
       <c r="E23" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -5763,7 +5773,7 @@
         <v>60</v>
       </c>
       <c r="E24" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -5783,7 +5793,9 @@
       <c r="D25" t="s" s="28">
         <v>63</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" t="s" s="8">
+        <v>8</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
@@ -5803,7 +5815,7 @@
         <v>66</v>
       </c>
       <c r="E26" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -5824,7 +5836,7 @@
         <v>69</v>
       </c>
       <c r="E27" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -5845,7 +5857,7 @@
         <v>72</v>
       </c>
       <c r="E28" t="s" s="16">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -5866,7 +5878,7 @@
         <v>75</v>
       </c>
       <c r="E29" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -5887,7 +5899,7 @@
         <v>78</v>
       </c>
       <c r="E30" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -5908,7 +5920,7 @@
         <v>81</v>
       </c>
       <c r="E31" t="s" s="18">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -5928,7 +5940,9 @@
       <c r="D32" t="s" s="18">
         <v>84</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -5947,7 +5961,9 @@
       <c r="D33" t="s" s="18">
         <v>87</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
@@ -5966,7 +5982,9 @@
       <c r="D34" t="s" s="18">
         <v>90</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -5985,7 +6003,9 @@
       <c r="D35" t="s" s="18">
         <v>93</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
@@ -6004,7 +6024,9 @@
       <c r="D36" t="s" s="18">
         <v>96</v>
       </c>
-      <c r="E36" s="18"/>
+      <c r="E36" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -6023,7 +6045,9 @@
       <c r="D37" t="s" s="18">
         <v>99</v>
       </c>
-      <c r="E37" s="18"/>
+      <c r="E37" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
@@ -6042,7 +6066,9 @@
       <c r="D38" t="s" s="18">
         <v>102</v>
       </c>
-      <c r="E38" s="18"/>
+      <c r="E38" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
@@ -6061,7 +6087,9 @@
       <c r="D39" t="s" s="18">
         <v>105</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
@@ -6080,7 +6108,9 @@
       <c r="D40" t="s" s="18">
         <v>108</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
@@ -6099,7 +6129,9 @@
       <c r="D41" t="s" s="18">
         <v>111</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
@@ -6118,7 +6150,9 @@
       <c r="D42" t="s" s="18">
         <v>114</v>
       </c>
-      <c r="E42" s="18"/>
+      <c r="E42" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
@@ -6137,7 +6171,9 @@
       <c r="D43" t="s" s="18">
         <v>117</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
@@ -6156,7 +6192,9 @@
       <c r="D44" t="s" s="18">
         <v>120</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
@@ -6175,7 +6213,9 @@
       <c r="D45" t="s" s="18">
         <v>123</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
@@ -6194,7 +6234,9 @@
       <c r="D46" t="s" s="18">
         <v>126</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
@@ -6213,7 +6255,9 @@
       <c r="D47" t="s" s="18">
         <v>129</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
@@ -6232,7 +6276,9 @@
       <c r="D48" t="s" s="18">
         <v>132</v>
       </c>
-      <c r="E48" s="18"/>
+      <c r="E48" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
@@ -6251,7 +6297,9 @@
       <c r="D49" t="s" s="18">
         <v>135</v>
       </c>
-      <c r="E49" s="18"/>
+      <c r="E49" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
@@ -6270,7 +6318,9 @@
       <c r="D50" t="s" s="18">
         <v>138</v>
       </c>
-      <c r="E50" s="18"/>
+      <c r="E50" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="25"/>
@@ -6289,7 +6339,9 @@
       <c r="D51" t="s" s="18">
         <v>141</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="25"/>
@@ -6308,7 +6360,9 @@
       <c r="D52" t="s" s="18">
         <v>144</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="25"/>
@@ -6327,7 +6381,9 @@
       <c r="D53" t="s" s="18">
         <v>147</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="25"/>
@@ -6346,7 +6402,9 @@
       <c r="D54" t="s" s="18">
         <v>150</v>
       </c>
-      <c r="E54" s="18"/>
+      <c r="E54" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="25"/>
@@ -6365,7 +6423,9 @@
       <c r="D55" t="s" s="18">
         <v>153</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="25"/>
@@ -6384,7 +6444,9 @@
       <c r="D56" t="s" s="29">
         <v>156</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="25"/>
@@ -6403,7 +6465,9 @@
       <c r="D57" t="s" s="8">
         <v>159</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="E57" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="25"/>
@@ -6422,7 +6486,9 @@
       <c r="D58" t="s" s="8">
         <v>162</v>
       </c>
-      <c r="E58" s="13"/>
+      <c r="E58" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="25"/>
@@ -6441,7 +6507,9 @@
       <c r="D59" t="s" s="8">
         <v>165</v>
       </c>
-      <c r="E59" s="13"/>
+      <c r="E59" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="25"/>
@@ -6460,7 +6528,9 @@
       <c r="D60" t="s" s="8">
         <v>168</v>
       </c>
-      <c r="E60" s="13"/>
+      <c r="E60" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="25"/>
@@ -6479,7 +6549,9 @@
       <c r="D61" t="s" s="8">
         <v>171</v>
       </c>
-      <c r="E61" s="13"/>
+      <c r="E61" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="25"/>
@@ -6498,7 +6570,9 @@
       <c r="D62" t="s" s="8">
         <v>174</v>
       </c>
-      <c r="E62" s="13"/>
+      <c r="E62" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="25"/>
@@ -6517,7 +6591,9 @@
       <c r="D63" t="s" s="8">
         <v>177</v>
       </c>
-      <c r="E63" s="13"/>
+      <c r="E63" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="25"/>
@@ -6536,7 +6612,9 @@
       <c r="D64" t="s" s="8">
         <v>180</v>
       </c>
-      <c r="E64" s="13"/>
+      <c r="E64" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="25"/>
@@ -6555,7 +6633,9 @@
       <c r="D65" t="s" s="8">
         <v>183</v>
       </c>
-      <c r="E65" s="13"/>
+      <c r="E65" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="25"/>
@@ -6574,7 +6654,9 @@
       <c r="D66" t="s" s="8">
         <v>186</v>
       </c>
-      <c r="E66" s="13"/>
+      <c r="E66" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="25"/>
@@ -6593,7 +6675,9 @@
       <c r="D67" t="s" s="8">
         <v>189</v>
       </c>
-      <c r="E67" s="13"/>
+      <c r="E67" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="25"/>
@@ -6612,7 +6696,9 @@
       <c r="D68" t="s" s="8">
         <v>192</v>
       </c>
-      <c r="E68" s="13"/>
+      <c r="E68" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="25"/>
@@ -6631,7 +6717,9 @@
       <c r="D69" t="s" s="8">
         <v>195</v>
       </c>
-      <c r="E69" s="13"/>
+      <c r="E69" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="25"/>
@@ -6650,7 +6738,9 @@
       <c r="D70" t="s" s="8">
         <v>198</v>
       </c>
-      <c r="E70" s="13"/>
+      <c r="E70" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="25"/>
@@ -6669,7 +6759,9 @@
       <c r="D71" t="s" s="8">
         <v>201</v>
       </c>
-      <c r="E71" s="13"/>
+      <c r="E71" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="25"/>
@@ -6688,7 +6780,9 @@
       <c r="D72" t="s" s="8">
         <v>204</v>
       </c>
-      <c r="E72" s="13"/>
+      <c r="E72" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="25"/>
@@ -6707,7 +6801,9 @@
       <c r="D73" t="s" s="8">
         <v>207</v>
       </c>
-      <c r="E73" s="13"/>
+      <c r="E73" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="25"/>
@@ -6726,7 +6822,9 @@
       <c r="D74" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="E74" s="13"/>
+      <c r="E74" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="25"/>
@@ -6745,7 +6843,9 @@
       <c r="D75" t="s" s="8">
         <v>213</v>
       </c>
-      <c r="E75" s="13"/>
+      <c r="E75" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="25"/>
@@ -6764,7 +6864,9 @@
       <c r="D76" t="s" s="8">
         <v>216</v>
       </c>
-      <c r="E76" s="13"/>
+      <c r="E76" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="25"/>
@@ -6783,7 +6885,9 @@
       <c r="D77" t="s" s="8">
         <v>219</v>
       </c>
-      <c r="E77" s="13"/>
+      <c r="E77" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="25"/>
@@ -6802,7 +6906,9 @@
       <c r="D78" t="s" s="8">
         <v>222</v>
       </c>
-      <c r="E78" s="13"/>
+      <c r="E78" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="25"/>
@@ -6821,7 +6927,9 @@
       <c r="D79" t="s" s="8">
         <v>225</v>
       </c>
-      <c r="E79" s="13"/>
+      <c r="E79" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="25"/>
@@ -6840,7 +6948,9 @@
       <c r="D80" t="s" s="8">
         <v>227</v>
       </c>
-      <c r="E80" s="13"/>
+      <c r="E80" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="25"/>
@@ -6859,7 +6969,9 @@
       <c r="D81" t="s" s="8">
         <v>229</v>
       </c>
-      <c r="E81" s="13"/>
+      <c r="E81" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="25"/>
@@ -6878,7 +6990,9 @@
       <c r="D82" t="s" s="8">
         <v>201</v>
       </c>
-      <c r="E82" s="13"/>
+      <c r="E82" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="25"/>
@@ -6897,7 +7011,9 @@
       <c r="D83" t="s" s="8">
         <v>204</v>
       </c>
-      <c r="E83" s="13"/>
+      <c r="E83" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="25"/>
@@ -6916,7 +7032,9 @@
       <c r="D84" t="s" s="8">
         <v>207</v>
       </c>
-      <c r="E84" s="13"/>
+      <c r="E84" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="25"/>
@@ -6935,7 +7053,9 @@
       <c r="D85" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="E85" s="13"/>
+      <c r="E85" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="25"/>
@@ -6954,7 +7074,9 @@
       <c r="D86" t="s" s="8">
         <v>213</v>
       </c>
-      <c r="E86" s="13"/>
+      <c r="E86" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="25"/>
@@ -6973,7 +7095,9 @@
       <c r="D87" t="s" s="8">
         <v>216</v>
       </c>
-      <c r="E87" s="13"/>
+      <c r="E87" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="25"/>
@@ -6992,7 +7116,9 @@
       <c r="D88" t="s" s="8">
         <v>219</v>
       </c>
-      <c r="E88" s="13"/>
+      <c r="E88" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="25"/>
@@ -7011,7 +7137,9 @@
       <c r="D89" t="s" s="8">
         <v>222</v>
       </c>
-      <c r="E89" s="13"/>
+      <c r="E89" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="25"/>
@@ -7030,7 +7158,9 @@
       <c r="D90" t="s" s="8">
         <v>225</v>
       </c>
-      <c r="E90" s="13"/>
+      <c r="E90" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F90" s="21"/>
       <c r="G90" s="32"/>
       <c r="H90" s="33"/>
@@ -7049,7 +7179,9 @@
       <c r="D91" t="s" s="8">
         <v>227</v>
       </c>
-      <c r="E91" s="13"/>
+      <c r="E91" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F91" s="34"/>
       <c r="G91" s="35"/>
       <c r="H91" s="24"/>
@@ -7068,7 +7200,9 @@
       <c r="D92" t="s" s="8">
         <v>252</v>
       </c>
-      <c r="E92" s="13"/>
+      <c r="E92" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F92" s="34"/>
       <c r="G92" s="35"/>
       <c r="H92" s="24"/>
@@ -7087,7 +7221,9 @@
       <c r="D93" t="s" s="16">
         <v>255</v>
       </c>
-      <c r="E93" s="18"/>
+      <c r="E93" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F93" s="34"/>
       <c r="G93" s="35"/>
       <c r="H93" s="24"/>
@@ -7106,7 +7242,9 @@
       <c r="D94" t="s" s="18">
         <v>258</v>
       </c>
-      <c r="E94" s="18"/>
+      <c r="E94" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F94" s="34"/>
       <c r="G94" s="35"/>
       <c r="H94" s="24"/>
@@ -7125,7 +7263,9 @@
       <c r="D95" t="s" s="18">
         <v>261</v>
       </c>
-      <c r="E95" s="18"/>
+      <c r="E95" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F95" s="34"/>
       <c r="G95" s="35"/>
       <c r="H95" s="24"/>
@@ -7144,7 +7284,9 @@
       <c r="D96" t="s" s="18">
         <v>264</v>
       </c>
-      <c r="E96" s="18"/>
+      <c r="E96" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F96" s="34"/>
       <c r="G96" s="35"/>
       <c r="H96" s="24"/>
@@ -7163,7 +7305,9 @@
       <c r="D97" t="s" s="18">
         <v>229</v>
       </c>
-      <c r="E97" s="18"/>
+      <c r="E97" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F97" s="34"/>
       <c r="G97" s="35"/>
       <c r="H97" s="24"/>
@@ -7182,7 +7326,9 @@
       <c r="D98" t="s" s="18">
         <v>269</v>
       </c>
-      <c r="E98" s="18"/>
+      <c r="E98" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F98" s="34"/>
       <c r="G98" s="35"/>
       <c r="H98" s="24"/>
@@ -7201,7 +7347,9 @@
       <c r="D99" t="s" s="18">
         <v>272</v>
       </c>
-      <c r="E99" s="18"/>
+      <c r="E99" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F99" s="34"/>
       <c r="G99" s="35"/>
       <c r="H99" s="24"/>
@@ -7220,7 +7368,9 @@
       <c r="D100" t="s" s="18">
         <v>275</v>
       </c>
-      <c r="E100" s="18"/>
+      <c r="E100" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F100" s="34"/>
       <c r="G100" s="35"/>
       <c r="H100" s="24"/>
@@ -7239,7 +7389,9 @@
       <c r="D101" t="s" s="18">
         <v>278</v>
       </c>
-      <c r="E101" s="18"/>
+      <c r="E101" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F101" s="34"/>
       <c r="G101" s="35"/>
       <c r="H101" s="24"/>
@@ -7258,7 +7410,9 @@
       <c r="D102" t="s" s="18">
         <v>281</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F102" s="34"/>
       <c r="G102" s="35"/>
       <c r="H102" s="24"/>
@@ -7277,7 +7431,9 @@
       <c r="D103" t="s" s="18">
         <v>284</v>
       </c>
-      <c r="E103" s="18"/>
+      <c r="E103" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F103" s="34"/>
       <c r="G103" s="35"/>
       <c r="H103" s="24"/>
@@ -7296,7 +7452,9 @@
       <c r="D104" t="s" s="18">
         <v>287</v>
       </c>
-      <c r="E104" s="18"/>
+      <c r="E104" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F104" s="34"/>
       <c r="G104" s="35"/>
       <c r="H104" s="24"/>
@@ -7315,7 +7473,9 @@
       <c r="D105" t="s" s="18">
         <v>290</v>
       </c>
-      <c r="E105" s="18"/>
+      <c r="E105" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F105" s="34"/>
       <c r="G105" s="35"/>
       <c r="H105" s="24"/>
@@ -7334,7 +7494,9 @@
       <c r="D106" t="s" s="18">
         <v>293</v>
       </c>
-      <c r="E106" s="18"/>
+      <c r="E106" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F106" s="34"/>
       <c r="G106" s="35"/>
       <c r="H106" s="24"/>
@@ -7353,7 +7515,9 @@
       <c r="D107" t="s" s="18">
         <v>296</v>
       </c>
-      <c r="E107" s="18"/>
+      <c r="E107" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F107" s="34"/>
       <c r="G107" s="35"/>
       <c r="H107" s="24"/>
@@ -7372,7 +7536,9 @@
       <c r="D108" t="s" s="18">
         <v>299</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F108" s="34"/>
       <c r="G108" s="35"/>
       <c r="H108" s="24"/>
@@ -7391,7 +7557,9 @@
       <c r="D109" t="s" s="18">
         <v>302</v>
       </c>
-      <c r="E109" s="18"/>
+      <c r="E109" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F109" s="34"/>
       <c r="G109" s="35"/>
       <c r="H109" s="24"/>
@@ -7410,7 +7578,9 @@
       <c r="D110" t="s" s="18">
         <v>305</v>
       </c>
-      <c r="E110" s="18"/>
+      <c r="E110" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F110" s="34"/>
       <c r="G110" s="35"/>
       <c r="H110" s="24"/>
@@ -7429,7 +7599,9 @@
       <c r="D111" t="s" s="18">
         <v>308</v>
       </c>
-      <c r="E111" s="18"/>
+      <c r="E111" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F111" s="34"/>
       <c r="G111" s="35"/>
       <c r="H111" s="24"/>
@@ -7448,7 +7620,9 @@
       <c r="D112" t="s" s="18">
         <v>310</v>
       </c>
-      <c r="E112" s="18"/>
+      <c r="E112" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F112" s="34"/>
       <c r="G112" s="35"/>
       <c r="H112" s="24"/>
@@ -7467,7 +7641,9 @@
       <c r="D113" t="s" s="18">
         <v>312</v>
       </c>
-      <c r="E113" s="18"/>
+      <c r="E113" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F113" s="34"/>
       <c r="G113" s="35"/>
       <c r="H113" s="24"/>
@@ -7486,7 +7662,9 @@
       <c r="D114" t="s" s="18">
         <v>315</v>
       </c>
-      <c r="E114" s="18"/>
+      <c r="E114" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F114" s="34"/>
       <c r="G114" s="35"/>
       <c r="H114" s="24"/>
@@ -7505,7 +7683,9 @@
       <c r="D115" t="s" s="18">
         <v>317</v>
       </c>
-      <c r="E115" s="18"/>
+      <c r="E115" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F115" s="34"/>
       <c r="G115" s="35"/>
       <c r="H115" s="24"/>
@@ -7524,7 +7704,9 @@
       <c r="D116" t="s" s="18">
         <v>319</v>
       </c>
-      <c r="E116" s="18"/>
+      <c r="E116" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F116" s="34"/>
       <c r="G116" s="35"/>
       <c r="H116" s="24"/>
@@ -7543,7 +7725,9 @@
       <c r="D117" t="s" s="18">
         <v>321</v>
       </c>
-      <c r="E117" s="18"/>
+      <c r="E117" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F117" s="34"/>
       <c r="G117" s="35"/>
       <c r="H117" s="24"/>
@@ -7562,7 +7746,9 @@
       <c r="D118" t="s" s="18">
         <v>323</v>
       </c>
-      <c r="E118" s="18"/>
+      <c r="E118" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F118" s="34"/>
       <c r="G118" s="35"/>
       <c r="H118" s="24"/>
@@ -7581,7 +7767,9 @@
       <c r="D119" t="s" s="18">
         <v>326</v>
       </c>
-      <c r="E119" s="18"/>
+      <c r="E119" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F119" s="34"/>
       <c r="G119" s="35"/>
       <c r="H119" s="24"/>
@@ -7600,7 +7788,9 @@
       <c r="D120" t="s" s="18">
         <v>328</v>
       </c>
-      <c r="E120" s="18"/>
+      <c r="E120" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F120" s="34"/>
       <c r="G120" s="35"/>
       <c r="H120" s="24"/>
@@ -7619,7 +7809,9 @@
       <c r="D121" t="s" s="18">
         <v>330</v>
       </c>
-      <c r="E121" s="18"/>
+      <c r="E121" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F121" s="34"/>
       <c r="G121" s="35"/>
       <c r="H121" s="24"/>
@@ -7638,7 +7830,9 @@
       <c r="D122" t="s" s="18">
         <v>332</v>
       </c>
-      <c r="E122" s="18"/>
+      <c r="E122" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F122" s="34"/>
       <c r="G122" s="35"/>
       <c r="H122" s="24"/>
@@ -7657,7 +7851,9 @@
       <c r="D123" t="s" s="18">
         <v>334</v>
       </c>
-      <c r="E123" s="18"/>
+      <c r="E123" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F123" s="34"/>
       <c r="G123" s="35"/>
       <c r="H123" s="24"/>
@@ -7676,7 +7872,9 @@
       <c r="D124" t="s" s="18">
         <v>336</v>
       </c>
-      <c r="E124" s="18"/>
+      <c r="E124" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F124" s="34"/>
       <c r="G124" s="35"/>
       <c r="H124" s="24"/>
@@ -7695,7 +7893,9 @@
       <c r="D125" t="s" s="18">
         <v>339</v>
       </c>
-      <c r="E125" s="18"/>
+      <c r="E125" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F125" s="34"/>
       <c r="G125" s="35"/>
       <c r="H125" s="24"/>
@@ -7714,7 +7914,9 @@
       <c r="D126" t="s" s="18">
         <v>342</v>
       </c>
-      <c r="E126" s="18"/>
+      <c r="E126" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F126" s="34"/>
       <c r="G126" s="35"/>
       <c r="H126" s="24"/>
@@ -7733,7 +7935,9 @@
       <c r="D127" t="s" s="18">
         <v>345</v>
       </c>
-      <c r="E127" s="18"/>
+      <c r="E127" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F127" s="34"/>
       <c r="G127" s="35"/>
       <c r="H127" s="24"/>
@@ -7752,7 +7956,9 @@
       <c r="D128" t="s" s="18">
         <v>348</v>
       </c>
-      <c r="E128" s="18"/>
+      <c r="E128" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F128" s="34"/>
       <c r="G128" s="35"/>
       <c r="H128" s="24"/>
@@ -7771,7 +7977,9 @@
       <c r="D129" t="s" s="18">
         <v>351</v>
       </c>
-      <c r="E129" s="18"/>
+      <c r="E129" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F129" s="34"/>
       <c r="G129" s="35"/>
       <c r="H129" s="24"/>
@@ -7790,7 +7998,9 @@
       <c r="D130" t="s" s="18">
         <v>354</v>
       </c>
-      <c r="E130" s="18"/>
+      <c r="E130" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F130" s="34"/>
       <c r="G130" s="35"/>
       <c r="H130" s="24"/>
@@ -7809,7 +8019,9 @@
       <c r="D131" t="s" s="18">
         <v>357</v>
       </c>
-      <c r="E131" s="18"/>
+      <c r="E131" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F131" s="34"/>
       <c r="G131" s="35"/>
       <c r="H131" s="24"/>
@@ -7828,7 +8040,9 @@
       <c r="D132" t="s" s="18">
         <v>360</v>
       </c>
-      <c r="E132" s="18"/>
+      <c r="E132" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F132" s="34"/>
       <c r="G132" s="35"/>
       <c r="H132" s="24"/>
@@ -7847,7 +8061,9 @@
       <c r="D133" t="s" s="18">
         <v>363</v>
       </c>
-      <c r="E133" s="18"/>
+      <c r="E133" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F133" s="34"/>
       <c r="G133" s="35"/>
       <c r="H133" s="24"/>
@@ -7866,7 +8082,9 @@
       <c r="D134" t="s" s="18">
         <v>366</v>
       </c>
-      <c r="E134" s="18"/>
+      <c r="E134" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F134" s="34"/>
       <c r="G134" s="35"/>
       <c r="H134" s="24"/>
@@ -7885,7 +8103,9 @@
       <c r="D135" t="s" s="18">
         <v>369</v>
       </c>
-      <c r="E135" s="18"/>
+      <c r="E135" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F135" s="34"/>
       <c r="G135" s="35"/>
       <c r="H135" s="24"/>
@@ -7904,7 +8124,9 @@
       <c r="D136" t="s" s="18">
         <v>372</v>
       </c>
-      <c r="E136" s="18"/>
+      <c r="E136" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F136" s="34"/>
       <c r="G136" s="35"/>
       <c r="H136" s="24"/>
@@ -7923,7 +8145,9 @@
       <c r="D137" t="s" s="18">
         <v>375</v>
       </c>
-      <c r="E137" s="18"/>
+      <c r="E137" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F137" s="34"/>
       <c r="G137" s="35"/>
       <c r="H137" s="24"/>
@@ -7942,7 +8166,9 @@
       <c r="D138" t="s" s="18">
         <v>378</v>
       </c>
-      <c r="E138" s="18"/>
+      <c r="E138" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F138" s="34"/>
       <c r="G138" s="35"/>
       <c r="H138" s="24"/>
@@ -7961,7 +8187,9 @@
       <c r="D139" t="s" s="18">
         <v>381</v>
       </c>
-      <c r="E139" s="18"/>
+      <c r="E139" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F139" s="34"/>
       <c r="G139" s="35"/>
       <c r="H139" s="24"/>
@@ -7980,7 +8208,9 @@
       <c r="D140" t="s" s="18">
         <v>384</v>
       </c>
-      <c r="E140" s="18"/>
+      <c r="E140" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F140" s="34"/>
       <c r="G140" s="35"/>
       <c r="H140" s="24"/>
@@ -7999,7 +8229,9 @@
       <c r="D141" t="s" s="18">
         <v>387</v>
       </c>
-      <c r="E141" s="18"/>
+      <c r="E141" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F141" s="34"/>
       <c r="G141" s="35"/>
       <c r="H141" s="24"/>
@@ -8018,7 +8250,9 @@
       <c r="D142" t="s" s="18">
         <v>390</v>
       </c>
-      <c r="E142" s="18"/>
+      <c r="E142" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F142" s="34"/>
       <c r="G142" s="35"/>
       <c r="H142" s="24"/>
@@ -8037,7 +8271,9 @@
       <c r="D143" t="s" s="18">
         <v>393</v>
       </c>
-      <c r="E143" s="18"/>
+      <c r="E143" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F143" s="34"/>
       <c r="G143" s="35"/>
       <c r="H143" s="24"/>
@@ -8056,7 +8292,9 @@
       <c r="D144" t="s" s="18">
         <v>396</v>
       </c>
-      <c r="E144" s="18"/>
+      <c r="E144" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F144" s="34"/>
       <c r="G144" s="35"/>
       <c r="H144" s="24"/>
@@ -8075,7 +8313,9 @@
       <c r="D145" t="s" s="18">
         <v>399</v>
       </c>
-      <c r="E145" s="18"/>
+      <c r="E145" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F145" s="34"/>
       <c r="G145" s="35"/>
       <c r="H145" s="24"/>
@@ -8094,7 +8334,9 @@
       <c r="D146" t="s" s="18">
         <v>402</v>
       </c>
-      <c r="E146" s="18"/>
+      <c r="E146" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F146" s="34"/>
       <c r="G146" s="35"/>
       <c r="H146" s="24"/>
@@ -8113,7 +8355,9 @@
       <c r="D147" t="s" s="18">
         <v>405</v>
       </c>
-      <c r="E147" s="18"/>
+      <c r="E147" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F147" s="34"/>
       <c r="G147" s="35"/>
       <c r="H147" s="24"/>
@@ -8132,7 +8376,9 @@
       <c r="D148" t="s" s="18">
         <v>408</v>
       </c>
-      <c r="E148" s="18"/>
+      <c r="E148" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F148" s="34"/>
       <c r="G148" s="35"/>
       <c r="H148" s="24"/>
@@ -8151,7 +8397,9 @@
       <c r="D149" t="s" s="18">
         <v>411</v>
       </c>
-      <c r="E149" s="18"/>
+      <c r="E149" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F149" s="34"/>
       <c r="G149" s="35"/>
       <c r="H149" s="24"/>
@@ -8170,7 +8418,9 @@
       <c r="D150" t="s" s="18">
         <v>414</v>
       </c>
-      <c r="E150" s="18"/>
+      <c r="E150" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F150" s="34"/>
       <c r="G150" s="35"/>
       <c r="H150" s="24"/>
@@ -8189,7 +8439,9 @@
       <c r="D151" t="s" s="18">
         <v>417</v>
       </c>
-      <c r="E151" s="18"/>
+      <c r="E151" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F151" s="34"/>
       <c r="G151" s="35"/>
       <c r="H151" s="24"/>
@@ -8208,7 +8460,9 @@
       <c r="D152" t="s" s="18">
         <v>420</v>
       </c>
-      <c r="E152" s="18"/>
+      <c r="E152" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F152" s="34"/>
       <c r="G152" s="35"/>
       <c r="H152" s="24"/>
@@ -8227,7 +8481,9 @@
       <c r="D153" t="s" s="18">
         <v>423</v>
       </c>
-      <c r="E153" s="18"/>
+      <c r="E153" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F153" s="34"/>
       <c r="G153" s="35"/>
       <c r="H153" s="24"/>
@@ -8246,7 +8502,9 @@
       <c r="D154" t="s" s="18">
         <v>426</v>
       </c>
-      <c r="E154" s="18"/>
+      <c r="E154" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F154" s="34"/>
       <c r="G154" s="35"/>
       <c r="H154" s="24"/>
@@ -8265,7 +8523,9 @@
       <c r="D155" t="s" s="18">
         <v>429</v>
       </c>
-      <c r="E155" s="18"/>
+      <c r="E155" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F155" s="34"/>
       <c r="G155" s="35"/>
       <c r="H155" s="24"/>
@@ -8284,7 +8544,9 @@
       <c r="D156" t="s" s="18">
         <v>432</v>
       </c>
-      <c r="E156" s="18"/>
+      <c r="E156" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F156" s="34"/>
       <c r="G156" s="35"/>
       <c r="H156" s="24"/>
@@ -8303,7 +8565,9 @@
       <c r="D157" t="s" s="18">
         <v>435</v>
       </c>
-      <c r="E157" s="18"/>
+      <c r="E157" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F157" s="34"/>
       <c r="G157" s="35"/>
       <c r="H157" s="24"/>
@@ -8322,7 +8586,9 @@
       <c r="D158" t="s" s="18">
         <v>438</v>
       </c>
-      <c r="E158" s="18"/>
+      <c r="E158" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F158" s="34"/>
       <c r="G158" s="35"/>
       <c r="H158" s="24"/>
@@ -8341,7 +8607,9 @@
       <c r="D159" t="s" s="18">
         <v>441</v>
       </c>
-      <c r="E159" s="18"/>
+      <c r="E159" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F159" s="34"/>
       <c r="G159" s="35"/>
       <c r="H159" s="24"/>
@@ -8360,7 +8628,9 @@
       <c r="D160" t="s" s="18">
         <v>444</v>
       </c>
-      <c r="E160" s="18"/>
+      <c r="E160" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F160" s="34"/>
       <c r="G160" s="35"/>
       <c r="H160" s="24"/>
@@ -8379,7 +8649,9 @@
       <c r="D161" t="s" s="18">
         <v>447</v>
       </c>
-      <c r="E161" s="18"/>
+      <c r="E161" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F161" s="34"/>
       <c r="G161" s="35"/>
       <c r="H161" s="24"/>
@@ -8398,7 +8670,9 @@
       <c r="D162" t="s" s="18">
         <v>450</v>
       </c>
-      <c r="E162" s="18"/>
+      <c r="E162" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F162" s="34"/>
       <c r="G162" s="35"/>
       <c r="H162" s="24"/>
@@ -8417,7 +8691,9 @@
       <c r="D163" t="s" s="18">
         <v>453</v>
       </c>
-      <c r="E163" s="18"/>
+      <c r="E163" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F163" s="34"/>
       <c r="G163" s="35"/>
       <c r="H163" s="24"/>
@@ -8436,7 +8712,9 @@
       <c r="D164" t="s" s="18">
         <v>456</v>
       </c>
-      <c r="E164" s="18"/>
+      <c r="E164" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F164" s="34"/>
       <c r="G164" s="35"/>
       <c r="H164" s="24"/>
@@ -8455,7 +8733,9 @@
       <c r="D165" t="s" s="18">
         <v>459</v>
       </c>
-      <c r="E165" s="18"/>
+      <c r="E165" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F165" s="34"/>
       <c r="G165" s="35"/>
       <c r="H165" s="24"/>
@@ -8474,7 +8754,9 @@
       <c r="D166" t="s" s="18">
         <v>462</v>
       </c>
-      <c r="E166" s="18"/>
+      <c r="E166" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F166" s="34"/>
       <c r="G166" s="35"/>
       <c r="H166" s="24"/>
@@ -8493,7 +8775,9 @@
       <c r="D167" t="s" s="18">
         <v>465</v>
       </c>
-      <c r="E167" s="18"/>
+      <c r="E167" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F167" s="34"/>
       <c r="G167" s="35"/>
       <c r="H167" s="24"/>
@@ -8512,7 +8796,9 @@
       <c r="D168" t="s" s="18">
         <v>468</v>
       </c>
-      <c r="E168" s="18"/>
+      <c r="E168" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F168" s="34"/>
       <c r="G168" s="35"/>
       <c r="H168" s="24"/>
@@ -8531,7 +8817,9 @@
       <c r="D169" t="s" s="18">
         <v>471</v>
       </c>
-      <c r="E169" s="18"/>
+      <c r="E169" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F169" s="34"/>
       <c r="G169" s="35"/>
       <c r="H169" s="24"/>
@@ -8550,7 +8838,9 @@
       <c r="D170" t="s" s="18">
         <v>474</v>
       </c>
-      <c r="E170" s="18"/>
+      <c r="E170" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F170" s="34"/>
       <c r="G170" s="35"/>
       <c r="H170" s="24"/>
@@ -8569,7 +8859,9 @@
       <c r="D171" t="s" s="18">
         <v>477</v>
       </c>
-      <c r="E171" s="18"/>
+      <c r="E171" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F171" s="34"/>
       <c r="G171" s="35"/>
       <c r="H171" s="24"/>
@@ -8588,7 +8880,9 @@
       <c r="D172" t="s" s="18">
         <v>480</v>
       </c>
-      <c r="E172" s="18"/>
+      <c r="E172" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F172" s="34"/>
       <c r="G172" s="35"/>
       <c r="H172" s="24"/>
@@ -8607,7 +8901,9 @@
       <c r="D173" t="s" s="18">
         <v>483</v>
       </c>
-      <c r="E173" s="18"/>
+      <c r="E173" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F173" s="34"/>
       <c r="G173" s="35"/>
       <c r="H173" s="24"/>
@@ -8626,7 +8922,9 @@
       <c r="D174" t="s" s="18">
         <v>486</v>
       </c>
-      <c r="E174" s="18"/>
+      <c r="E174" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F174" s="34"/>
       <c r="G174" s="35"/>
       <c r="H174" s="24"/>
@@ -8645,7 +8943,9 @@
       <c r="D175" t="s" s="18">
         <v>489</v>
       </c>
-      <c r="E175" s="18"/>
+      <c r="E175" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F175" s="34"/>
       <c r="G175" s="35"/>
       <c r="H175" s="24"/>
@@ -8664,7 +8964,9 @@
       <c r="D176" t="s" s="18">
         <v>492</v>
       </c>
-      <c r="E176" s="18"/>
+      <c r="E176" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F176" s="34"/>
       <c r="G176" s="35"/>
       <c r="H176" s="24"/>
@@ -8683,7 +8985,9 @@
       <c r="D177" t="s" s="18">
         <v>495</v>
       </c>
-      <c r="E177" s="18"/>
+      <c r="E177" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F177" s="34"/>
       <c r="G177" s="35"/>
       <c r="H177" s="24"/>
@@ -8702,7 +9006,9 @@
       <c r="D178" t="s" s="18">
         <v>498</v>
       </c>
-      <c r="E178" s="18"/>
+      <c r="E178" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F178" s="34"/>
       <c r="G178" s="35"/>
       <c r="H178" s="24"/>
@@ -8721,7 +9027,9 @@
       <c r="D179" t="s" s="18">
         <v>501</v>
       </c>
-      <c r="E179" s="18"/>
+      <c r="E179" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F179" s="34"/>
       <c r="G179" s="35"/>
       <c r="H179" s="24"/>
@@ -8740,7 +9048,9 @@
       <c r="D180" t="s" s="18">
         <v>504</v>
       </c>
-      <c r="E180" s="18"/>
+      <c r="E180" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F180" s="34"/>
       <c r="G180" s="35"/>
       <c r="H180" s="24"/>
@@ -8759,7 +9069,9 @@
       <c r="D181" t="s" s="18">
         <v>507</v>
       </c>
-      <c r="E181" s="18"/>
+      <c r="E181" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F181" s="34"/>
       <c r="G181" s="35"/>
       <c r="H181" s="24"/>
@@ -8778,7 +9090,9 @@
       <c r="D182" t="s" s="18">
         <v>510</v>
       </c>
-      <c r="E182" s="18"/>
+      <c r="E182" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F182" s="34"/>
       <c r="G182" s="35"/>
       <c r="H182" s="24"/>
@@ -8797,7 +9111,9 @@
       <c r="D183" t="s" s="18">
         <v>513</v>
       </c>
-      <c r="E183" s="18"/>
+      <c r="E183" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F183" s="34"/>
       <c r="G183" s="35"/>
       <c r="H183" s="24"/>
@@ -8816,7 +9132,9 @@
       <c r="D184" t="s" s="18">
         <v>516</v>
       </c>
-      <c r="E184" s="18"/>
+      <c r="E184" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F184" s="34"/>
       <c r="G184" s="35"/>
       <c r="H184" s="24"/>
@@ -8835,7 +9153,9 @@
       <c r="D185" t="s" s="18">
         <v>519</v>
       </c>
-      <c r="E185" s="18"/>
+      <c r="E185" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F185" s="34"/>
       <c r="G185" s="35"/>
       <c r="H185" s="24"/>
@@ -8854,7 +9174,9 @@
       <c r="D186" t="s" s="18">
         <v>522</v>
       </c>
-      <c r="E186" s="14"/>
+      <c r="E186" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F186" s="34"/>
       <c r="G186" s="35"/>
       <c r="H186" s="24"/>
@@ -8873,7 +9195,9 @@
       <c r="D187" t="s" s="18">
         <v>525</v>
       </c>
-      <c r="E187" s="14"/>
+      <c r="E187" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F187" s="34"/>
       <c r="G187" s="35"/>
       <c r="H187" s="24"/>
@@ -8892,7 +9216,9 @@
       <c r="D188" t="s" s="18">
         <v>528</v>
       </c>
-      <c r="E188" s="14"/>
+      <c r="E188" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F188" s="34"/>
       <c r="G188" s="35"/>
       <c r="H188" s="24"/>
@@ -8911,7 +9237,9 @@
       <c r="D189" t="s" s="18">
         <v>531</v>
       </c>
-      <c r="E189" s="14"/>
+      <c r="E189" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F189" s="34"/>
       <c r="G189" s="35"/>
       <c r="H189" s="24"/>
@@ -8930,7 +9258,9 @@
       <c r="D190" t="s" s="18">
         <v>534</v>
       </c>
-      <c r="E190" s="14"/>
+      <c r="E190" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F190" s="34"/>
       <c r="G190" s="35"/>
       <c r="H190" s="24"/>
@@ -8949,7 +9279,9 @@
       <c r="D191" t="s" s="18">
         <v>537</v>
       </c>
-      <c r="E191" s="14"/>
+      <c r="E191" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F191" s="34"/>
       <c r="G191" s="35"/>
       <c r="H191" s="24"/>
@@ -8968,7 +9300,9 @@
       <c r="D192" t="s" s="18">
         <v>540</v>
       </c>
-      <c r="E192" s="14"/>
+      <c r="E192" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F192" s="34"/>
       <c r="G192" s="35"/>
       <c r="H192" s="24"/>
@@ -8987,7 +9321,9 @@
       <c r="D193" t="s" s="18">
         <v>543</v>
       </c>
-      <c r="E193" s="14"/>
+      <c r="E193" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F193" s="34"/>
       <c r="G193" s="35"/>
       <c r="H193" s="24"/>
@@ -9006,7 +9342,9 @@
       <c r="D194" t="s" s="18">
         <v>546</v>
       </c>
-      <c r="E194" s="14"/>
+      <c r="E194" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F194" s="34"/>
       <c r="G194" s="35"/>
       <c r="H194" s="24"/>
@@ -9025,7 +9363,9 @@
       <c r="D195" t="s" s="18">
         <v>549</v>
       </c>
-      <c r="E195" s="14"/>
+      <c r="E195" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F195" s="34"/>
       <c r="G195" s="35"/>
       <c r="H195" s="24"/>
@@ -9044,7 +9384,9 @@
       <c r="D196" t="s" s="18">
         <v>552</v>
       </c>
-      <c r="E196" s="14"/>
+      <c r="E196" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F196" s="34"/>
       <c r="G196" s="35"/>
       <c r="H196" s="24"/>
@@ -9063,7 +9405,9 @@
       <c r="D197" t="s" s="18">
         <v>555</v>
       </c>
-      <c r="E197" s="14"/>
+      <c r="E197" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F197" s="34"/>
       <c r="G197" s="35"/>
       <c r="H197" s="24"/>
@@ -9082,7 +9426,9 @@
       <c r="D198" t="s" s="18">
         <v>558</v>
       </c>
-      <c r="E198" s="14"/>
+      <c r="E198" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F198" s="34"/>
       <c r="G198" s="35"/>
       <c r="H198" s="24"/>
@@ -9101,7 +9447,9 @@
       <c r="D199" t="s" s="18">
         <v>561</v>
       </c>
-      <c r="E199" s="14"/>
+      <c r="E199" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F199" s="34"/>
       <c r="G199" s="35"/>
       <c r="H199" s="24"/>
@@ -9120,7 +9468,9 @@
       <c r="D200" t="s" s="18">
         <v>564</v>
       </c>
-      <c r="E200" s="14"/>
+      <c r="E200" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F200" s="34"/>
       <c r="G200" s="35"/>
       <c r="H200" s="24"/>
@@ -9139,7 +9489,9 @@
       <c r="D201" t="s" s="18">
         <v>567</v>
       </c>
-      <c r="E201" s="14"/>
+      <c r="E201" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F201" s="34"/>
       <c r="G201" s="35"/>
       <c r="H201" s="24"/>
@@ -9158,7 +9510,9 @@
       <c r="D202" t="s" s="18">
         <v>570</v>
       </c>
-      <c r="E202" s="14"/>
+      <c r="E202" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F202" s="34"/>
       <c r="G202" s="35"/>
       <c r="H202" s="24"/>
@@ -9177,7 +9531,9 @@
       <c r="D203" t="s" s="18">
         <v>573</v>
       </c>
-      <c r="E203" s="14"/>
+      <c r="E203" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F203" s="34"/>
       <c r="G203" s="35"/>
       <c r="H203" s="24"/>
@@ -9196,7 +9552,9 @@
       <c r="D204" t="s" s="18">
         <v>576</v>
       </c>
-      <c r="E204" s="14"/>
+      <c r="E204" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F204" s="34"/>
       <c r="G204" s="35"/>
       <c r="H204" s="24"/>
@@ -9215,7 +9573,9 @@
       <c r="D205" t="s" s="18">
         <v>579</v>
       </c>
-      <c r="E205" s="14"/>
+      <c r="E205" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F205" s="34"/>
       <c r="G205" s="35"/>
       <c r="H205" s="24"/>
@@ -9234,7 +9594,9 @@
       <c r="D206" t="s" s="18">
         <v>582</v>
       </c>
-      <c r="E206" s="14"/>
+      <c r="E206" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F206" s="34"/>
       <c r="G206" s="35"/>
       <c r="H206" s="24"/>
@@ -9253,7 +9615,9 @@
       <c r="D207" t="s" s="18">
         <v>585</v>
       </c>
-      <c r="E207" s="14"/>
+      <c r="E207" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F207" s="34"/>
       <c r="G207" s="35"/>
       <c r="H207" s="24"/>
@@ -9272,7 +9636,9 @@
       <c r="D208" t="s" s="18">
         <v>588</v>
       </c>
-      <c r="E208" s="14"/>
+      <c r="E208" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F208" s="34"/>
       <c r="G208" s="35"/>
       <c r="H208" s="24"/>
@@ -9291,7 +9657,9 @@
       <c r="D209" t="s" s="18">
         <v>591</v>
       </c>
-      <c r="E209" s="14"/>
+      <c r="E209" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F209" s="34"/>
       <c r="G209" s="35"/>
       <c r="H209" s="24"/>
@@ -9310,7 +9678,9 @@
       <c r="D210" t="s" s="18">
         <v>594</v>
       </c>
-      <c r="E210" s="14"/>
+      <c r="E210" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F210" s="34"/>
       <c r="G210" s="35"/>
       <c r="H210" s="24"/>
@@ -9329,7 +9699,9 @@
       <c r="D211" t="s" s="18">
         <v>597</v>
       </c>
-      <c r="E211" s="14"/>
+      <c r="E211" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F211" s="34"/>
       <c r="G211" s="35"/>
       <c r="H211" s="24"/>
@@ -9348,7 +9720,9 @@
       <c r="D212" t="s" s="18">
         <v>600</v>
       </c>
-      <c r="E212" s="14"/>
+      <c r="E212" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F212" s="34"/>
       <c r="G212" s="35"/>
       <c r="H212" s="24"/>
@@ -9367,7 +9741,9 @@
       <c r="D213" t="s" s="18">
         <v>603</v>
       </c>
-      <c r="E213" s="14"/>
+      <c r="E213" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F213" s="34"/>
       <c r="G213" s="35"/>
       <c r="H213" s="24"/>
@@ -9386,7 +9762,9 @@
       <c r="D214" t="s" s="18">
         <v>606</v>
       </c>
-      <c r="E214" s="14"/>
+      <c r="E214" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F214" s="34"/>
       <c r="G214" s="35"/>
       <c r="H214" s="24"/>
@@ -9405,7 +9783,9 @@
       <c r="D215" t="s" s="18">
         <v>609</v>
       </c>
-      <c r="E215" s="14"/>
+      <c r="E215" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F215" s="34"/>
       <c r="G215" s="35"/>
       <c r="H215" s="24"/>
@@ -9424,7 +9804,9 @@
       <c r="D216" t="s" s="18">
         <v>612</v>
       </c>
-      <c r="E216" s="14"/>
+      <c r="E216" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F216" s="34"/>
       <c r="G216" s="35"/>
       <c r="H216" s="24"/>
@@ -9443,7 +9825,9 @@
       <c r="D217" t="s" s="18">
         <v>615</v>
       </c>
-      <c r="E217" s="14"/>
+      <c r="E217" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F217" s="34"/>
       <c r="G217" s="35"/>
       <c r="H217" s="24"/>
@@ -9462,7 +9846,9 @@
       <c r="D218" t="s" s="18">
         <v>618</v>
       </c>
-      <c r="E218" s="14"/>
+      <c r="E218" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F218" s="34"/>
       <c r="G218" s="35"/>
       <c r="H218" s="24"/>
@@ -9481,7 +9867,9 @@
       <c r="D219" t="s" s="18">
         <v>621</v>
       </c>
-      <c r="E219" s="14"/>
+      <c r="E219" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F219" s="34"/>
       <c r="G219" s="35"/>
       <c r="H219" s="24"/>
@@ -9500,7 +9888,9 @@
       <c r="D220" t="s" s="18">
         <v>624</v>
       </c>
-      <c r="E220" s="14"/>
+      <c r="E220" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F220" s="34"/>
       <c r="G220" s="35"/>
       <c r="H220" s="24"/>
@@ -9519,7 +9909,9 @@
       <c r="D221" t="s" s="18">
         <v>627</v>
       </c>
-      <c r="E221" s="14"/>
+      <c r="E221" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F221" s="34"/>
       <c r="G221" s="35"/>
       <c r="H221" s="24"/>
@@ -9538,7 +9930,9 @@
       <c r="D222" t="s" s="18">
         <v>630</v>
       </c>
-      <c r="E222" s="14"/>
+      <c r="E222" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F222" s="34"/>
       <c r="G222" s="35"/>
       <c r="H222" s="24"/>
@@ -9557,7 +9951,9 @@
       <c r="D223" t="s" s="18">
         <v>633</v>
       </c>
-      <c r="E223" s="14"/>
+      <c r="E223" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F223" s="34"/>
       <c r="G223" s="35"/>
       <c r="H223" s="24"/>
@@ -9576,7 +9972,9 @@
       <c r="D224" t="s" s="18">
         <v>636</v>
       </c>
-      <c r="E224" s="14"/>
+      <c r="E224" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F224" s="34"/>
       <c r="G224" s="35"/>
       <c r="H224" s="24"/>
@@ -9595,7 +9993,9 @@
       <c r="D225" t="s" s="18">
         <v>639</v>
       </c>
-      <c r="E225" s="14"/>
+      <c r="E225" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F225" s="34"/>
       <c r="G225" s="35"/>
       <c r="H225" s="24"/>
@@ -9614,7 +10014,9 @@
       <c r="D226" t="s" s="18">
         <v>642</v>
       </c>
-      <c r="E226" s="14"/>
+      <c r="E226" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F226" s="34"/>
       <c r="G226" s="35"/>
       <c r="H226" s="24"/>
@@ -9633,7 +10035,9 @@
       <c r="D227" t="s" s="18">
         <v>645</v>
       </c>
-      <c r="E227" s="14"/>
+      <c r="E227" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F227" s="34"/>
       <c r="G227" s="35"/>
       <c r="H227" s="24"/>
@@ -9652,7 +10056,9 @@
       <c r="D228" t="s" s="18">
         <v>648</v>
       </c>
-      <c r="E228" s="14"/>
+      <c r="E228" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F228" s="34"/>
       <c r="G228" s="35"/>
       <c r="H228" s="24"/>
@@ -9671,7 +10077,9 @@
       <c r="D229" t="s" s="18">
         <v>651</v>
       </c>
-      <c r="E229" s="14"/>
+      <c r="E229" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F229" s="34"/>
       <c r="G229" s="35"/>
       <c r="H229" s="24"/>
@@ -9690,7 +10098,9 @@
       <c r="D230" t="s" s="18">
         <v>654</v>
       </c>
-      <c r="E230" s="14"/>
+      <c r="E230" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F230" s="34"/>
       <c r="G230" s="35"/>
       <c r="H230" s="24"/>
@@ -9709,7 +10119,9 @@
       <c r="D231" t="s" s="18">
         <v>657</v>
       </c>
-      <c r="E231" s="14"/>
+      <c r="E231" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F231" s="34"/>
       <c r="G231" s="35"/>
       <c r="H231" s="24"/>
@@ -9728,7 +10140,9 @@
       <c r="D232" t="s" s="18">
         <v>660</v>
       </c>
-      <c r="E232" s="14"/>
+      <c r="E232" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F232" s="34"/>
       <c r="G232" s="35"/>
       <c r="H232" s="24"/>
@@ -9747,7 +10161,9 @@
       <c r="D233" t="s" s="18">
         <v>663</v>
       </c>
-      <c r="E233" s="14"/>
+      <c r="E233" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F233" s="34"/>
       <c r="G233" s="35"/>
       <c r="H233" s="24"/>
@@ -9766,7 +10182,9 @@
       <c r="D234" t="s" s="18">
         <v>666</v>
       </c>
-      <c r="E234" s="14"/>
+      <c r="E234" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F234" s="34"/>
       <c r="G234" s="35"/>
       <c r="H234" s="24"/>
@@ -9785,7 +10203,9 @@
       <c r="D235" t="s" s="18">
         <v>669</v>
       </c>
-      <c r="E235" s="14"/>
+      <c r="E235" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F235" s="34"/>
       <c r="G235" s="35"/>
       <c r="H235" s="24"/>
@@ -9804,7 +10224,9 @@
       <c r="D236" t="s" s="18">
         <v>672</v>
       </c>
-      <c r="E236" s="14"/>
+      <c r="E236" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F236" s="34"/>
       <c r="G236" s="35"/>
       <c r="H236" s="24"/>
@@ -9823,7 +10245,9 @@
       <c r="D237" t="s" s="18">
         <v>675</v>
       </c>
-      <c r="E237" s="14"/>
+      <c r="E237" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F237" s="34"/>
       <c r="G237" s="35"/>
       <c r="H237" s="24"/>
@@ -9842,7 +10266,9 @@
       <c r="D238" t="s" s="18">
         <v>678</v>
       </c>
-      <c r="E238" s="14"/>
+      <c r="E238" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F238" s="34"/>
       <c r="G238" s="35"/>
       <c r="H238" s="24"/>
@@ -9861,7 +10287,9 @@
       <c r="D239" t="s" s="18">
         <v>681</v>
       </c>
-      <c r="E239" s="14"/>
+      <c r="E239" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F239" s="34"/>
       <c r="G239" s="35"/>
       <c r="H239" s="24"/>
@@ -9880,7 +10308,9 @@
       <c r="D240" t="s" s="18">
         <v>684</v>
       </c>
-      <c r="E240" s="14"/>
+      <c r="E240" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F240" s="34"/>
       <c r="G240" s="35"/>
       <c r="H240" s="24"/>
@@ -9899,7 +10329,9 @@
       <c r="D241" t="s" s="18">
         <v>687</v>
       </c>
-      <c r="E241" s="14"/>
+      <c r="E241" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F241" s="34"/>
       <c r="G241" s="35"/>
       <c r="H241" s="24"/>
@@ -9918,7 +10350,9 @@
       <c r="D242" t="s" s="18">
         <v>690</v>
       </c>
-      <c r="E242" s="14"/>
+      <c r="E242" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F242" s="34"/>
       <c r="G242" s="35"/>
       <c r="H242" s="24"/>
@@ -9937,7 +10371,9 @@
       <c r="D243" t="s" s="18">
         <v>693</v>
       </c>
-      <c r="E243" s="14"/>
+      <c r="E243" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F243" s="34"/>
       <c r="G243" s="35"/>
       <c r="H243" s="24"/>
@@ -9956,7 +10392,9 @@
       <c r="D244" t="s" s="18">
         <v>696</v>
       </c>
-      <c r="E244" s="14"/>
+      <c r="E244" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F244" s="34"/>
       <c r="G244" s="35"/>
       <c r="H244" s="24"/>
@@ -9975,7 +10413,9 @@
       <c r="D245" t="s" s="18">
         <v>699</v>
       </c>
-      <c r="E245" s="14"/>
+      <c r="E245" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F245" s="34"/>
       <c r="G245" s="35"/>
       <c r="H245" s="24"/>
@@ -9994,7 +10434,9 @@
       <c r="D246" t="s" s="18">
         <v>702</v>
       </c>
-      <c r="E246" s="14"/>
+      <c r="E246" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F246" s="34"/>
       <c r="G246" s="35"/>
       <c r="H246" s="24"/>
@@ -10013,7 +10455,9 @@
       <c r="D247" t="s" s="18">
         <v>705</v>
       </c>
-      <c r="E247" s="14"/>
+      <c r="E247" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F247" s="34"/>
       <c r="G247" s="35"/>
       <c r="H247" s="24"/>
@@ -10032,7 +10476,9 @@
       <c r="D248" t="s" s="18">
         <v>708</v>
       </c>
-      <c r="E248" s="14"/>
+      <c r="E248" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F248" s="34"/>
       <c r="G248" s="35"/>
       <c r="H248" s="24"/>
@@ -10051,7 +10497,9 @@
       <c r="D249" t="s" s="18">
         <v>711</v>
       </c>
-      <c r="E249" s="14"/>
+      <c r="E249" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F249" s="34"/>
       <c r="G249" s="35"/>
       <c r="H249" s="24"/>
@@ -10070,7 +10518,9 @@
       <c r="D250" t="s" s="18">
         <v>714</v>
       </c>
-      <c r="E250" s="14"/>
+      <c r="E250" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F250" s="34"/>
       <c r="G250" s="35"/>
       <c r="H250" s="24"/>
@@ -10089,7 +10539,9 @@
       <c r="D251" t="s" s="18">
         <v>717</v>
       </c>
-      <c r="E251" s="14"/>
+      <c r="E251" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F251" s="34"/>
       <c r="G251" s="35"/>
       <c r="H251" s="24"/>
@@ -10108,7 +10560,9 @@
       <c r="D252" t="s" s="18">
         <v>720</v>
       </c>
-      <c r="E252" s="14"/>
+      <c r="E252" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F252" s="34"/>
       <c r="G252" s="35"/>
       <c r="H252" s="24"/>
@@ -10127,7 +10581,9 @@
       <c r="D253" t="s" s="18">
         <v>723</v>
       </c>
-      <c r="E253" s="14"/>
+      <c r="E253" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F253" s="34"/>
       <c r="G253" s="35"/>
       <c r="H253" s="24"/>
@@ -10146,7 +10602,9 @@
       <c r="D254" t="s" s="18">
         <v>726</v>
       </c>
-      <c r="E254" s="14"/>
+      <c r="E254" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F254" s="34"/>
       <c r="G254" s="35"/>
       <c r="H254" s="24"/>
@@ -10165,7 +10623,9 @@
       <c r="D255" s="37">
         <v>0.04166666666666666</v>
       </c>
-      <c r="E255" s="14"/>
+      <c r="E255" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F255" s="34"/>
       <c r="G255" s="35"/>
       <c r="H255" s="24"/>
@@ -10184,7 +10644,9 @@
       <c r="D256" s="37">
         <v>0.08333333333333333</v>
       </c>
-      <c r="E256" s="14"/>
+      <c r="E256" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F256" s="34"/>
       <c r="G256" s="35"/>
       <c r="H256" s="24"/>
@@ -10203,7 +10665,9 @@
       <c r="D257" s="37">
         <v>0.125</v>
       </c>
-      <c r="E257" s="14"/>
+      <c r="E257" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F257" s="34"/>
       <c r="G257" s="35"/>
       <c r="H257" s="24"/>
@@ -10222,7 +10686,9 @@
       <c r="D258" s="37">
         <v>0.1666666666666667</v>
       </c>
-      <c r="E258" s="14"/>
+      <c r="E258" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F258" s="34"/>
       <c r="G258" s="35"/>
       <c r="H258" s="24"/>
@@ -10241,7 +10707,9 @@
       <c r="D259" s="37">
         <v>0.2083333333333333</v>
       </c>
-      <c r="E259" s="14"/>
+      <c r="E259" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F259" s="34"/>
       <c r="G259" s="35"/>
       <c r="H259" s="24"/>
@@ -10260,7 +10728,9 @@
       <c r="D260" s="37">
         <v>0.25</v>
       </c>
-      <c r="E260" s="14"/>
+      <c r="E260" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F260" s="34"/>
       <c r="G260" s="35"/>
       <c r="H260" s="24"/>
@@ -10279,7 +10749,9 @@
       <c r="D261" s="37">
         <v>0.2916666666666667</v>
       </c>
-      <c r="E261" s="14"/>
+      <c r="E261" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F261" s="34"/>
       <c r="G261" s="35"/>
       <c r="H261" s="24"/>
@@ -10298,7 +10770,9 @@
       <c r="D262" s="37">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E262" s="14"/>
+      <c r="E262" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F262" s="34"/>
       <c r="G262" s="35"/>
       <c r="H262" s="24"/>
@@ -10317,7 +10791,9 @@
       <c r="D263" s="37">
         <v>0.375</v>
       </c>
-      <c r="E263" s="14"/>
+      <c r="E263" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F263" s="34"/>
       <c r="G263" s="35"/>
       <c r="H263" s="24"/>
@@ -10336,7 +10812,9 @@
       <c r="D264" s="37">
         <v>0.4166666666666667</v>
       </c>
-      <c r="E264" s="14"/>
+      <c r="E264" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F264" s="34"/>
       <c r="G264" s="35"/>
       <c r="H264" s="24"/>
@@ -10355,7 +10833,9 @@
       <c r="D265" t="s" s="38">
         <v>749</v>
       </c>
-      <c r="E265" s="14"/>
+      <c r="E265" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F265" s="34"/>
       <c r="G265" s="35"/>
       <c r="H265" s="24"/>
@@ -10374,7 +10854,9 @@
       <c r="D266" t="s" s="38">
         <v>752</v>
       </c>
-      <c r="E266" s="14"/>
+      <c r="E266" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F266" s="34"/>
       <c r="G266" s="35"/>
       <c r="H266" s="24"/>
@@ -10393,7 +10875,9 @@
       <c r="D267" t="s" s="38">
         <v>755</v>
       </c>
-      <c r="E267" s="14"/>
+      <c r="E267" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F267" s="34"/>
       <c r="G267" s="35"/>
       <c r="H267" s="24"/>
@@ -10412,7 +10896,9 @@
       <c r="D268" t="s" s="38">
         <v>758</v>
       </c>
-      <c r="E268" s="14"/>
+      <c r="E268" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F268" s="34"/>
       <c r="G268" s="35"/>
       <c r="H268" s="24"/>
@@ -10431,7 +10917,9 @@
       <c r="D269" t="s" s="38">
         <v>761</v>
       </c>
-      <c r="E269" s="14"/>
+      <c r="E269" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F269" s="34"/>
       <c r="G269" s="35"/>
       <c r="H269" s="24"/>
@@ -10450,7 +10938,9 @@
       <c r="D270" t="s" s="38">
         <v>764</v>
       </c>
-      <c r="E270" s="14"/>
+      <c r="E270" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F270" s="34"/>
       <c r="G270" s="35"/>
       <c r="H270" s="24"/>
@@ -10469,7 +10959,9 @@
       <c r="D271" t="s" s="18">
         <v>767</v>
       </c>
-      <c r="E271" s="14"/>
+      <c r="E271" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F271" s="34"/>
       <c r="G271" s="35"/>
       <c r="H271" s="24"/>
@@ -10488,7 +10980,9 @@
       <c r="D272" t="s" s="18">
         <v>770</v>
       </c>
-      <c r="E272" s="14"/>
+      <c r="E272" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F272" s="34"/>
       <c r="G272" s="35"/>
       <c r="H272" s="24"/>
@@ -10507,7 +11001,9 @@
       <c r="D273" t="s" s="18">
         <v>773</v>
       </c>
-      <c r="E273" s="14"/>
+      <c r="E273" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F273" s="34"/>
       <c r="G273" s="35"/>
       <c r="H273" s="24"/>
@@ -10526,7 +11022,9 @@
       <c r="D274" t="s" s="18">
         <v>776</v>
       </c>
-      <c r="E274" s="14"/>
+      <c r="E274" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F274" s="34"/>
       <c r="G274" s="35"/>
       <c r="H274" s="24"/>
@@ -10545,7 +11043,9 @@
       <c r="D275" t="s" s="18">
         <v>779</v>
       </c>
-      <c r="E275" s="14"/>
+      <c r="E275" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F275" s="34"/>
       <c r="G275" s="35"/>
       <c r="H275" s="24"/>
@@ -10564,7 +11064,9 @@
       <c r="D276" t="s" s="18">
         <v>782</v>
       </c>
-      <c r="E276" s="14"/>
+      <c r="E276" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F276" s="34"/>
       <c r="G276" s="35"/>
       <c r="H276" s="24"/>
@@ -10583,7 +11085,9 @@
       <c r="D277" t="s" s="18">
         <v>785</v>
       </c>
-      <c r="E277" s="14"/>
+      <c r="E277" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F277" s="34"/>
       <c r="G277" s="35"/>
       <c r="H277" s="24"/>
@@ -10602,7 +11106,9 @@
       <c r="D278" t="s" s="18">
         <v>788</v>
       </c>
-      <c r="E278" s="14"/>
+      <c r="E278" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F278" s="34"/>
       <c r="G278" s="35"/>
       <c r="H278" s="24"/>
@@ -10621,7 +11127,9 @@
       <c r="D279" t="s" s="18">
         <v>791</v>
       </c>
-      <c r="E279" s="14"/>
+      <c r="E279" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F279" s="34"/>
       <c r="G279" s="35"/>
       <c r="H279" s="24"/>
@@ -10640,7 +11148,9 @@
       <c r="D280" t="s" s="18">
         <v>794</v>
       </c>
-      <c r="E280" s="14"/>
+      <c r="E280" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F280" s="34"/>
       <c r="G280" s="35"/>
       <c r="H280" s="24"/>
@@ -10659,7 +11169,9 @@
       <c r="D281" t="s" s="18">
         <v>797</v>
       </c>
-      <c r="E281" s="14"/>
+      <c r="E281" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F281" s="34"/>
       <c r="G281" s="35"/>
       <c r="H281" s="24"/>
@@ -10678,7 +11190,9 @@
       <c r="D282" t="s" s="18">
         <v>800</v>
       </c>
-      <c r="E282" s="14"/>
+      <c r="E282" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F282" s="34"/>
       <c r="G282" s="35"/>
       <c r="H282" s="24"/>
@@ -10697,7 +11211,9 @@
       <c r="D283" t="s" s="18">
         <v>803</v>
       </c>
-      <c r="E283" s="14"/>
+      <c r="E283" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F283" s="34"/>
       <c r="G283" s="35"/>
       <c r="H283" s="24"/>
@@ -10716,7 +11232,9 @@
       <c r="D284" t="s" s="18">
         <v>806</v>
       </c>
-      <c r="E284" s="14"/>
+      <c r="E284" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F284" s="34"/>
       <c r="G284" s="35"/>
       <c r="H284" s="24"/>
@@ -10735,7 +11253,9 @@
       <c r="D285" t="s" s="18">
         <v>809</v>
       </c>
-      <c r="E285" s="14"/>
+      <c r="E285" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F285" s="34"/>
       <c r="G285" s="35"/>
       <c r="H285" s="24"/>
@@ -10754,7 +11274,9 @@
       <c r="D286" t="s" s="18">
         <v>812</v>
       </c>
-      <c r="E286" s="14"/>
+      <c r="E286" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F286" s="34"/>
       <c r="G286" s="35"/>
       <c r="H286" s="24"/>
@@ -10773,7 +11295,9 @@
       <c r="D287" t="s" s="18">
         <v>815</v>
       </c>
-      <c r="E287" s="14"/>
+      <c r="E287" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F287" s="34"/>
       <c r="G287" s="35"/>
       <c r="H287" s="24"/>
@@ -10792,7 +11316,9 @@
       <c r="D288" t="s" s="18">
         <v>818</v>
       </c>
-      <c r="E288" s="14"/>
+      <c r="E288" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F288" s="34"/>
       <c r="G288" s="35"/>
       <c r="H288" s="24"/>
@@ -10811,7 +11337,9 @@
       <c r="D289" t="s" s="18">
         <v>821</v>
       </c>
-      <c r="E289" s="14"/>
+      <c r="E289" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F289" s="34"/>
       <c r="G289" s="35"/>
       <c r="H289" s="24"/>
@@ -10830,7 +11358,9 @@
       <c r="D290" t="s" s="18">
         <v>824</v>
       </c>
-      <c r="E290" s="14"/>
+      <c r="E290" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F290" s="34"/>
       <c r="G290" s="35"/>
       <c r="H290" s="24"/>
@@ -10849,7 +11379,9 @@
       <c r="D291" t="s" s="18">
         <v>827</v>
       </c>
-      <c r="E291" s="14"/>
+      <c r="E291" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F291" s="34"/>
       <c r="G291" s="35"/>
       <c r="H291" s="24"/>
@@ -10868,7 +11400,9 @@
       <c r="D292" t="s" s="18">
         <v>830</v>
       </c>
-      <c r="E292" s="14"/>
+      <c r="E292" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F292" s="34"/>
       <c r="G292" s="35"/>
       <c r="H292" s="24"/>
@@ -10887,7 +11421,9 @@
       <c r="D293" t="s" s="18">
         <v>833</v>
       </c>
-      <c r="E293" s="14"/>
+      <c r="E293" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F293" s="34"/>
       <c r="G293" s="35"/>
       <c r="H293" s="24"/>
@@ -10906,7 +11442,9 @@
       <c r="D294" t="s" s="18">
         <v>836</v>
       </c>
-      <c r="E294" s="14"/>
+      <c r="E294" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F294" s="34"/>
       <c r="G294" s="35"/>
       <c r="H294" s="24"/>
@@ -10925,7 +11463,9 @@
       <c r="D295" t="s" s="18">
         <v>839</v>
       </c>
-      <c r="E295" s="14"/>
+      <c r="E295" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F295" s="34"/>
       <c r="G295" s="35"/>
       <c r="H295" s="24"/>
@@ -10944,7 +11484,9 @@
       <c r="D296" t="s" s="18">
         <v>842</v>
       </c>
-      <c r="E296" s="14"/>
+      <c r="E296" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F296" s="34"/>
       <c r="G296" s="35"/>
       <c r="H296" s="24"/>
@@ -10963,7 +11505,9 @@
       <c r="D297" t="s" s="18">
         <v>845</v>
       </c>
-      <c r="E297" s="14"/>
+      <c r="E297" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F297" s="34"/>
       <c r="G297" s="35"/>
       <c r="H297" s="24"/>
@@ -10982,7 +11526,9 @@
       <c r="D298" t="s" s="18">
         <v>848</v>
       </c>
-      <c r="E298" s="14"/>
+      <c r="E298" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F298" s="34"/>
       <c r="G298" s="35"/>
       <c r="H298" s="24"/>
@@ -11001,7 +11547,9 @@
       <c r="D299" t="s" s="18">
         <v>850</v>
       </c>
-      <c r="E299" s="14"/>
+      <c r="E299" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F299" s="34"/>
       <c r="G299" s="35"/>
       <c r="H299" s="24"/>
@@ -11020,7 +11568,9 @@
       <c r="D300" t="s" s="18">
         <v>853</v>
       </c>
-      <c r="E300" s="14"/>
+      <c r="E300" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F300" s="34"/>
       <c r="G300" s="35"/>
       <c r="H300" s="24"/>
@@ -11039,7 +11589,9 @@
       <c r="D301" t="s" s="18">
         <v>856</v>
       </c>
-      <c r="E301" s="14"/>
+      <c r="E301" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F301" s="34"/>
       <c r="G301" s="35"/>
       <c r="H301" s="24"/>
@@ -11058,7 +11610,9 @@
       <c r="D302" t="s" s="18">
         <v>859</v>
       </c>
-      <c r="E302" s="14"/>
+      <c r="E302" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F302" s="34"/>
       <c r="G302" s="35"/>
       <c r="H302" s="24"/>
@@ -11077,7 +11631,9 @@
       <c r="D303" t="s" s="18">
         <v>862</v>
       </c>
-      <c r="E303" s="14"/>
+      <c r="E303" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F303" s="34"/>
       <c r="G303" s="35"/>
       <c r="H303" s="24"/>
@@ -11096,7 +11652,9 @@
       <c r="D304" t="s" s="18">
         <v>865</v>
       </c>
-      <c r="E304" s="14"/>
+      <c r="E304" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F304" s="34"/>
       <c r="G304" s="35"/>
       <c r="H304" s="24"/>
@@ -11115,7 +11673,9 @@
       <c r="D305" t="s" s="18">
         <v>868</v>
       </c>
-      <c r="E305" s="14"/>
+      <c r="E305" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F305" s="34"/>
       <c r="G305" s="35"/>
       <c r="H305" s="24"/>
@@ -11134,7 +11694,9 @@
       <c r="D306" t="s" s="18">
         <v>871</v>
       </c>
-      <c r="E306" s="14"/>
+      <c r="E306" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F306" s="34"/>
       <c r="G306" s="35"/>
       <c r="H306" s="24"/>
@@ -11153,7 +11715,9 @@
       <c r="D307" t="s" s="18">
         <v>874</v>
       </c>
-      <c r="E307" s="14"/>
+      <c r="E307" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F307" s="34"/>
       <c r="G307" s="35"/>
       <c r="H307" s="24"/>
@@ -11172,7 +11736,9 @@
       <c r="D308" t="s" s="18">
         <v>877</v>
       </c>
-      <c r="E308" s="14"/>
+      <c r="E308" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F308" s="34"/>
       <c r="G308" s="35"/>
       <c r="H308" s="24"/>
@@ -11191,7 +11757,9 @@
       <c r="D309" t="s" s="18">
         <v>880</v>
       </c>
-      <c r="E309" s="14"/>
+      <c r="E309" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F309" s="34"/>
       <c r="G309" s="35"/>
       <c r="H309" s="24"/>
@@ -11210,7 +11778,9 @@
       <c r="D310" t="s" s="18">
         <v>883</v>
       </c>
-      <c r="E310" s="14"/>
+      <c r="E310" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F310" s="34"/>
       <c r="G310" s="35"/>
       <c r="H310" s="24"/>
@@ -11229,7 +11799,9 @@
       <c r="D311" t="s" s="18">
         <v>886</v>
       </c>
-      <c r="E311" s="14"/>
+      <c r="E311" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F311" s="34"/>
       <c r="G311" s="35"/>
       <c r="H311" s="24"/>
@@ -11248,7 +11820,9 @@
       <c r="D312" t="s" s="18">
         <v>888</v>
       </c>
-      <c r="E312" s="14"/>
+      <c r="E312" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F312" s="34"/>
       <c r="G312" s="35"/>
       <c r="H312" s="24"/>
@@ -11267,7 +11841,9 @@
       <c r="D313" t="s" s="18">
         <v>891</v>
       </c>
-      <c r="E313" s="14"/>
+      <c r="E313" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F313" s="34"/>
       <c r="G313" s="35"/>
       <c r="H313" s="24"/>
@@ -11286,7 +11862,9 @@
       <c r="D314" t="s" s="18">
         <v>894</v>
       </c>
-      <c r="E314" s="14"/>
+      <c r="E314" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F314" s="34"/>
       <c r="G314" s="35"/>
       <c r="H314" s="24"/>
@@ -11305,7 +11883,9 @@
       <c r="D315" t="s" s="18">
         <v>897</v>
       </c>
-      <c r="E315" s="14"/>
+      <c r="E315" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F315" s="34"/>
       <c r="G315" s="35"/>
       <c r="H315" s="24"/>
@@ -11324,7 +11904,9 @@
       <c r="D316" t="s" s="18">
         <v>900</v>
       </c>
-      <c r="E316" s="14"/>
+      <c r="E316" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F316" s="34"/>
       <c r="G316" s="35"/>
       <c r="H316" s="24"/>
@@ -11343,7 +11925,9 @@
       <c r="D317" t="s" s="18">
         <v>903</v>
       </c>
-      <c r="E317" s="14"/>
+      <c r="E317" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F317" s="34"/>
       <c r="G317" s="35"/>
       <c r="H317" s="24"/>
@@ -11362,7 +11946,9 @@
       <c r="D318" t="s" s="18">
         <v>906</v>
       </c>
-      <c r="E318" s="14"/>
+      <c r="E318" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F318" s="34"/>
       <c r="G318" s="35"/>
       <c r="H318" s="24"/>
@@ -11381,7 +11967,9 @@
       <c r="D319" t="s" s="18">
         <v>909</v>
       </c>
-      <c r="E319" s="14"/>
+      <c r="E319" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F319" s="34"/>
       <c r="G319" s="35"/>
       <c r="H319" s="24"/>
@@ -11400,7 +11988,9 @@
       <c r="D320" t="s" s="18">
         <v>912</v>
       </c>
-      <c r="E320" s="14"/>
+      <c r="E320" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F320" s="34"/>
       <c r="G320" s="35"/>
       <c r="H320" s="24"/>
@@ -11419,7 +12009,9 @@
       <c r="D321" t="s" s="18">
         <v>915</v>
       </c>
-      <c r="E321" s="14"/>
+      <c r="E321" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F321" s="34"/>
       <c r="G321" s="35"/>
       <c r="H321" s="24"/>
@@ -11438,7 +12030,9 @@
       <c r="D322" t="s" s="18">
         <v>918</v>
       </c>
-      <c r="E322" s="14"/>
+      <c r="E322" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F322" s="34"/>
       <c r="G322" s="35"/>
       <c r="H322" s="24"/>
@@ -11457,7 +12051,9 @@
       <c r="D323" t="s" s="18">
         <v>921</v>
       </c>
-      <c r="E323" s="14"/>
+      <c r="E323" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F323" s="34"/>
       <c r="G323" s="35"/>
       <c r="H323" s="24"/>
@@ -11476,7 +12072,9 @@
       <c r="D324" t="s" s="18">
         <v>924</v>
       </c>
-      <c r="E324" s="14"/>
+      <c r="E324" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F324" s="34"/>
       <c r="G324" s="35"/>
       <c r="H324" s="24"/>
@@ -11495,7 +12093,9 @@
       <c r="D325" t="s" s="18">
         <v>927</v>
       </c>
-      <c r="E325" s="14"/>
+      <c r="E325" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F325" s="34"/>
       <c r="G325" s="35"/>
       <c r="H325" s="24"/>
@@ -11514,7 +12114,9 @@
       <c r="D326" t="s" s="18">
         <v>930</v>
       </c>
-      <c r="E326" s="14"/>
+      <c r="E326" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F326" s="34"/>
       <c r="G326" s="35"/>
       <c r="H326" s="24"/>
@@ -11533,7 +12135,9 @@
       <c r="D327" t="s" s="18">
         <v>933</v>
       </c>
-      <c r="E327" s="14"/>
+      <c r="E327" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F327" s="34"/>
       <c r="G327" s="35"/>
       <c r="H327" s="24"/>
@@ -11552,7 +12156,9 @@
       <c r="D328" t="s" s="18">
         <v>936</v>
       </c>
-      <c r="E328" s="14"/>
+      <c r="E328" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F328" s="34"/>
       <c r="G328" s="35"/>
       <c r="H328" s="24"/>
@@ -11571,7 +12177,9 @@
       <c r="D329" t="s" s="18">
         <v>939</v>
       </c>
-      <c r="E329" s="14"/>
+      <c r="E329" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F329" s="34"/>
       <c r="G329" s="35"/>
       <c r="H329" s="24"/>
@@ -11590,7 +12198,9 @@
       <c r="D330" t="s" s="18">
         <v>942</v>
       </c>
-      <c r="E330" s="14"/>
+      <c r="E330" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F330" s="34"/>
       <c r="G330" s="35"/>
       <c r="H330" s="24"/>
@@ -11609,7 +12219,9 @@
       <c r="D331" t="s" s="18">
         <v>945</v>
       </c>
-      <c r="E331" s="14"/>
+      <c r="E331" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F331" s="34"/>
       <c r="G331" s="35"/>
       <c r="H331" s="24"/>
@@ -11628,7 +12240,9 @@
       <c r="D332" t="s" s="18">
         <v>948</v>
       </c>
-      <c r="E332" s="14"/>
+      <c r="E332" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F332" s="34"/>
       <c r="G332" s="35"/>
       <c r="H332" s="24"/>
@@ -11647,7 +12261,9 @@
       <c r="D333" t="s" s="18">
         <v>951</v>
       </c>
-      <c r="E333" s="14"/>
+      <c r="E333" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F333" s="34"/>
       <c r="G333" s="35"/>
       <c r="H333" s="24"/>
@@ -11666,7 +12282,9 @@
       <c r="D334" t="s" s="18">
         <v>954</v>
       </c>
-      <c r="E334" s="14"/>
+      <c r="E334" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F334" s="34"/>
       <c r="G334" s="35"/>
       <c r="H334" s="24"/>
@@ -11685,7 +12303,9 @@
       <c r="D335" t="s" s="18">
         <v>957</v>
       </c>
-      <c r="E335" s="14"/>
+      <c r="E335" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F335" s="34"/>
       <c r="G335" s="35"/>
       <c r="H335" s="24"/>
@@ -11704,7 +12324,9 @@
       <c r="D336" t="s" s="18">
         <v>960</v>
       </c>
-      <c r="E336" s="14"/>
+      <c r="E336" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F336" s="34"/>
       <c r="G336" s="35"/>
       <c r="H336" s="24"/>
@@ -11723,7 +12345,9 @@
       <c r="D337" t="s" s="18">
         <v>963</v>
       </c>
-      <c r="E337" s="14"/>
+      <c r="E337" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F337" s="34"/>
       <c r="G337" s="35"/>
       <c r="H337" s="24"/>
@@ -11742,7 +12366,9 @@
       <c r="D338" t="s" s="18">
         <v>966</v>
       </c>
-      <c r="E338" s="14"/>
+      <c r="E338" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F338" s="34"/>
       <c r="G338" s="35"/>
       <c r="H338" s="24"/>
@@ -11761,7 +12387,9 @@
       <c r="D339" t="s" s="18">
         <v>969</v>
       </c>
-      <c r="E339" s="14"/>
+      <c r="E339" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F339" s="34"/>
       <c r="G339" s="35"/>
       <c r="H339" s="24"/>
@@ -11780,7 +12408,9 @@
       <c r="D340" t="s" s="18">
         <v>972</v>
       </c>
-      <c r="E340" s="14"/>
+      <c r="E340" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F340" s="34"/>
       <c r="G340" s="35"/>
       <c r="H340" s="24"/>
@@ -11799,7 +12429,9 @@
       <c r="D341" t="s" s="18">
         <v>975</v>
       </c>
-      <c r="E341" s="14"/>
+      <c r="E341" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F341" s="34"/>
       <c r="G341" s="35"/>
       <c r="H341" s="24"/>
@@ -11818,7 +12450,9 @@
       <c r="D342" t="s" s="18">
         <v>978</v>
       </c>
-      <c r="E342" s="14"/>
+      <c r="E342" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F342" s="34"/>
       <c r="G342" s="35"/>
       <c r="H342" s="24"/>
@@ -11837,7 +12471,9 @@
       <c r="D343" t="s" s="18">
         <v>981</v>
       </c>
-      <c r="E343" s="14"/>
+      <c r="E343" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F343" s="34"/>
       <c r="G343" s="35"/>
       <c r="H343" s="24"/>
@@ -11856,7 +12492,9 @@
       <c r="D344" t="s" s="18">
         <v>984</v>
       </c>
-      <c r="E344" s="14"/>
+      <c r="E344" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F344" s="34"/>
       <c r="G344" s="35"/>
       <c r="H344" s="24"/>
@@ -11875,7 +12513,9 @@
       <c r="D345" t="s" s="18">
         <v>987</v>
       </c>
-      <c r="E345" s="14"/>
+      <c r="E345" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F345" s="34"/>
       <c r="G345" s="35"/>
       <c r="H345" s="24"/>
@@ -11894,7 +12534,9 @@
       <c r="D346" t="s" s="18">
         <v>990</v>
       </c>
-      <c r="E346" s="14"/>
+      <c r="E346" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F346" s="34"/>
       <c r="G346" s="35"/>
       <c r="H346" s="24"/>
@@ -11913,7 +12555,9 @@
       <c r="D347" t="s" s="18">
         <v>993</v>
       </c>
-      <c r="E347" s="14"/>
+      <c r="E347" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F347" s="34"/>
       <c r="G347" s="35"/>
       <c r="H347" s="24"/>
@@ -11932,7 +12576,9 @@
       <c r="D348" t="s" s="18">
         <v>996</v>
       </c>
-      <c r="E348" s="14"/>
+      <c r="E348" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F348" s="34"/>
       <c r="G348" s="35"/>
       <c r="H348" s="24"/>
@@ -11951,7 +12597,9 @@
       <c r="D349" t="s" s="18">
         <v>999</v>
       </c>
-      <c r="E349" s="14"/>
+      <c r="E349" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F349" s="34"/>
       <c r="G349" s="35"/>
       <c r="H349" s="24"/>
@@ -11970,7 +12618,9 @@
       <c r="D350" t="s" s="18">
         <v>1002</v>
       </c>
-      <c r="E350" s="14"/>
+      <c r="E350" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F350" s="34"/>
       <c r="G350" s="35"/>
       <c r="H350" s="24"/>
@@ -11989,7 +12639,9 @@
       <c r="D351" t="s" s="18">
         <v>1005</v>
       </c>
-      <c r="E351" s="14"/>
+      <c r="E351" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F351" s="34"/>
       <c r="G351" s="35"/>
       <c r="H351" s="24"/>
@@ -12008,7 +12660,9 @@
       <c r="D352" t="s" s="18">
         <v>1008</v>
       </c>
-      <c r="E352" s="14"/>
+      <c r="E352" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F352" s="34"/>
       <c r="G352" s="35"/>
       <c r="H352" s="24"/>
@@ -12027,7 +12681,9 @@
       <c r="D353" t="s" s="18">
         <v>1011</v>
       </c>
-      <c r="E353" s="14"/>
+      <c r="E353" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F353" s="34"/>
       <c r="G353" s="35"/>
       <c r="H353" s="24"/>
@@ -12046,7 +12702,9 @@
       <c r="D354" t="s" s="18">
         <v>1014</v>
       </c>
-      <c r="E354" s="14"/>
+      <c r="E354" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F354" s="34"/>
       <c r="G354" s="35"/>
       <c r="H354" s="24"/>
@@ -12065,7 +12723,9 @@
       <c r="D355" t="s" s="18">
         <v>1017</v>
       </c>
-      <c r="E355" s="14"/>
+      <c r="E355" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F355" s="34"/>
       <c r="G355" s="35"/>
       <c r="H355" s="24"/>
@@ -12084,7 +12744,9 @@
       <c r="D356" t="s" s="18">
         <v>1020</v>
       </c>
-      <c r="E356" s="14"/>
+      <c r="E356" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F356" s="34"/>
       <c r="G356" s="35"/>
       <c r="H356" s="24"/>
@@ -12103,7 +12765,9 @@
       <c r="D357" t="s" s="18">
         <v>1023</v>
       </c>
-      <c r="E357" s="14"/>
+      <c r="E357" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F357" s="34"/>
       <c r="G357" s="35"/>
       <c r="H357" s="24"/>
@@ -12122,7 +12786,9 @@
       <c r="D358" t="s" s="18">
         <v>1026</v>
       </c>
-      <c r="E358" s="14"/>
+      <c r="E358" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F358" s="34"/>
       <c r="G358" s="35"/>
       <c r="H358" s="24"/>
@@ -12141,7 +12807,9 @@
       <c r="D359" t="s" s="18">
         <v>1029</v>
       </c>
-      <c r="E359" s="14"/>
+      <c r="E359" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F359" s="34"/>
       <c r="G359" s="35"/>
       <c r="H359" s="24"/>
@@ -12160,7 +12828,9 @@
       <c r="D360" t="s" s="18">
         <v>1032</v>
       </c>
-      <c r="E360" s="14"/>
+      <c r="E360" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F360" s="34"/>
       <c r="G360" s="35"/>
       <c r="H360" s="24"/>
@@ -12179,7 +12849,9 @@
       <c r="D361" t="s" s="18">
         <v>1035</v>
       </c>
-      <c r="E361" s="14"/>
+      <c r="E361" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F361" s="34"/>
       <c r="G361" s="35"/>
       <c r="H361" s="24"/>
@@ -12198,7 +12870,9 @@
       <c r="D362" t="s" s="18">
         <v>1038</v>
       </c>
-      <c r="E362" s="14"/>
+      <c r="E362" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F362" s="34"/>
       <c r="G362" s="35"/>
       <c r="H362" s="24"/>
@@ -12217,7 +12891,9 @@
       <c r="D363" t="s" s="18">
         <v>1041</v>
       </c>
-      <c r="E363" s="14"/>
+      <c r="E363" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F363" s="34"/>
       <c r="G363" s="35"/>
       <c r="H363" s="24"/>
@@ -12236,7 +12912,9 @@
       <c r="D364" t="s" s="18">
         <v>1044</v>
       </c>
-      <c r="E364" s="14"/>
+      <c r="E364" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F364" s="34"/>
       <c r="G364" s="35"/>
       <c r="H364" s="24"/>
@@ -12255,7 +12933,9 @@
       <c r="D365" t="s" s="18">
         <v>1047</v>
       </c>
-      <c r="E365" s="14"/>
+      <c r="E365" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F365" s="34"/>
       <c r="G365" s="35"/>
       <c r="H365" s="24"/>
@@ -12274,7 +12954,9 @@
       <c r="D366" t="s" s="18">
         <v>1050</v>
       </c>
-      <c r="E366" s="14"/>
+      <c r="E366" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F366" s="34"/>
       <c r="G366" s="35"/>
       <c r="H366" s="24"/>
@@ -12293,7 +12975,9 @@
       <c r="D367" t="s" s="18">
         <v>1053</v>
       </c>
-      <c r="E367" s="14"/>
+      <c r="E367" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F367" s="34"/>
       <c r="G367" s="35"/>
       <c r="H367" s="24"/>
@@ -12312,7 +12996,9 @@
       <c r="D368" t="s" s="18">
         <v>1056</v>
       </c>
-      <c r="E368" s="14"/>
+      <c r="E368" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F368" s="34"/>
       <c r="G368" s="35"/>
       <c r="H368" s="24"/>
@@ -12331,7 +13017,9 @@
       <c r="D369" t="s" s="18">
         <v>1059</v>
       </c>
-      <c r="E369" s="14"/>
+      <c r="E369" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F369" s="34"/>
       <c r="G369" s="35"/>
       <c r="H369" s="24"/>
@@ -12350,7 +13038,9 @@
       <c r="D370" t="s" s="18">
         <v>1062</v>
       </c>
-      <c r="E370" s="14"/>
+      <c r="E370" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F370" s="34"/>
       <c r="G370" s="35"/>
       <c r="H370" s="24"/>
@@ -12369,7 +13059,9 @@
       <c r="D371" t="s" s="18">
         <v>1065</v>
       </c>
-      <c r="E371" s="14"/>
+      <c r="E371" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F371" s="34"/>
       <c r="G371" s="35"/>
       <c r="H371" s="24"/>
@@ -12388,7 +13080,9 @@
       <c r="D372" t="s" s="18">
         <v>1068</v>
       </c>
-      <c r="E372" s="14"/>
+      <c r="E372" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F372" s="34"/>
       <c r="G372" s="35"/>
       <c r="H372" s="24"/>
@@ -12407,7 +13101,9 @@
       <c r="D373" t="s" s="18">
         <v>1071</v>
       </c>
-      <c r="E373" s="14"/>
+      <c r="E373" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F373" s="34"/>
       <c r="G373" s="35"/>
       <c r="H373" s="24"/>
@@ -12426,7 +13122,9 @@
       <c r="D374" t="s" s="18">
         <v>1074</v>
       </c>
-      <c r="E374" s="14"/>
+      <c r="E374" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F374" s="34"/>
       <c r="G374" s="35"/>
       <c r="H374" s="24"/>
@@ -12445,7 +13143,9 @@
       <c r="D375" t="s" s="18">
         <v>1077</v>
       </c>
-      <c r="E375" s="14"/>
+      <c r="E375" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F375" s="34"/>
       <c r="G375" s="35"/>
       <c r="H375" s="24"/>
@@ -12464,7 +13164,9 @@
       <c r="D376" t="s" s="18">
         <v>1080</v>
       </c>
-      <c r="E376" s="14"/>
+      <c r="E376" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F376" s="34"/>
       <c r="G376" s="35"/>
       <c r="H376" s="24"/>
@@ -12483,7 +13185,9 @@
       <c r="D377" t="s" s="18">
         <v>1083</v>
       </c>
-      <c r="E377" s="14"/>
+      <c r="E377" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F377" s="34"/>
       <c r="G377" s="35"/>
       <c r="H377" s="24"/>
@@ -12502,7 +13206,9 @@
       <c r="D378" t="s" s="18">
         <v>1086</v>
       </c>
-      <c r="E378" s="14"/>
+      <c r="E378" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F378" s="34"/>
       <c r="G378" s="35"/>
       <c r="H378" s="24"/>
@@ -12521,7 +13227,9 @@
       <c r="D379" t="s" s="18">
         <v>1089</v>
       </c>
-      <c r="E379" s="14"/>
+      <c r="E379" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F379" s="34"/>
       <c r="G379" s="35"/>
       <c r="H379" s="24"/>
@@ -12540,7 +13248,9 @@
       <c r="D380" t="s" s="18">
         <v>1092</v>
       </c>
-      <c r="E380" s="14"/>
+      <c r="E380" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F380" s="34"/>
       <c r="G380" s="35"/>
       <c r="H380" s="24"/>
@@ -12559,7 +13269,9 @@
       <c r="D381" t="s" s="18">
         <v>1095</v>
       </c>
-      <c r="E381" s="14"/>
+      <c r="E381" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F381" s="34"/>
       <c r="G381" s="35"/>
       <c r="H381" s="24"/>
@@ -12578,7 +13290,9 @@
       <c r="D382" t="s" s="18">
         <v>1098</v>
       </c>
-      <c r="E382" s="14"/>
+      <c r="E382" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F382" s="34"/>
       <c r="G382" s="35"/>
       <c r="H382" s="24"/>
@@ -12597,7 +13311,9 @@
       <c r="D383" t="s" s="18">
         <v>1101</v>
       </c>
-      <c r="E383" s="14"/>
+      <c r="E383" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F383" s="34"/>
       <c r="G383" s="35"/>
       <c r="H383" s="24"/>
@@ -12616,7 +13332,9 @@
       <c r="D384" t="s" s="18">
         <v>1104</v>
       </c>
-      <c r="E384" s="14"/>
+      <c r="E384" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F384" s="34"/>
       <c r="G384" s="35"/>
       <c r="H384" s="24"/>
@@ -12635,7 +13353,9 @@
       <c r="D385" t="s" s="18">
         <v>1107</v>
       </c>
-      <c r="E385" s="14"/>
+      <c r="E385" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F385" s="34"/>
       <c r="G385" s="35"/>
       <c r="H385" s="24"/>
@@ -12654,7 +13374,9 @@
       <c r="D386" t="s" s="18">
         <v>1110</v>
       </c>
-      <c r="E386" s="14"/>
+      <c r="E386" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F386" s="34"/>
       <c r="G386" s="35"/>
       <c r="H386" s="24"/>
@@ -12673,7 +13395,9 @@
       <c r="D387" t="s" s="18">
         <v>1113</v>
       </c>
-      <c r="E387" s="14"/>
+      <c r="E387" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F387" s="34"/>
       <c r="G387" s="35"/>
       <c r="H387" s="24"/>
@@ -12692,7 +13416,9 @@
       <c r="D388" t="s" s="18">
         <v>1116</v>
       </c>
-      <c r="E388" s="14"/>
+      <c r="E388" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F388" s="34"/>
       <c r="G388" s="35"/>
       <c r="H388" s="24"/>
@@ -12711,7 +13437,9 @@
       <c r="D389" t="s" s="18">
         <v>1119</v>
       </c>
-      <c r="E389" s="14"/>
+      <c r="E389" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F389" s="34"/>
       <c r="G389" s="35"/>
       <c r="H389" s="24"/>
@@ -12730,7 +13458,9 @@
       <c r="D390" t="s" s="18">
         <v>1122</v>
       </c>
-      <c r="E390" s="14"/>
+      <c r="E390" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F390" s="34"/>
       <c r="G390" s="35"/>
       <c r="H390" s="24"/>
@@ -12749,7 +13479,9 @@
       <c r="D391" t="s" s="18">
         <v>1125</v>
       </c>
-      <c r="E391" s="14"/>
+      <c r="E391" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F391" s="34"/>
       <c r="G391" s="35"/>
       <c r="H391" s="24"/>
@@ -12768,7 +13500,9 @@
       <c r="D392" t="s" s="18">
         <v>1128</v>
       </c>
-      <c r="E392" s="14"/>
+      <c r="E392" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F392" s="34"/>
       <c r="G392" s="35"/>
       <c r="H392" s="24"/>
@@ -12787,7 +13521,9 @@
       <c r="D393" t="s" s="18">
         <v>1131</v>
       </c>
-      <c r="E393" s="14"/>
+      <c r="E393" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F393" s="34"/>
       <c r="G393" s="35"/>
       <c r="H393" s="24"/>
@@ -12806,7 +13542,9 @@
       <c r="D394" t="s" s="18">
         <v>1134</v>
       </c>
-      <c r="E394" s="14"/>
+      <c r="E394" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F394" s="34"/>
       <c r="G394" s="35"/>
       <c r="H394" s="24"/>
@@ -12825,7 +13563,9 @@
       <c r="D395" t="s" s="18">
         <v>1137</v>
       </c>
-      <c r="E395" s="14"/>
+      <c r="E395" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F395" s="34"/>
       <c r="G395" s="35"/>
       <c r="H395" s="24"/>
@@ -12844,7 +13584,9 @@
       <c r="D396" t="s" s="18">
         <v>1140</v>
       </c>
-      <c r="E396" s="14"/>
+      <c r="E396" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F396" s="34"/>
       <c r="G396" s="35"/>
       <c r="H396" s="24"/>
@@ -12863,7 +13605,9 @@
       <c r="D397" t="s" s="18">
         <v>1143</v>
       </c>
-      <c r="E397" s="14"/>
+      <c r="E397" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F397" s="34"/>
       <c r="G397" s="35"/>
       <c r="H397" s="24"/>
@@ -12882,7 +13626,9 @@
       <c r="D398" t="s" s="18">
         <v>1146</v>
       </c>
-      <c r="E398" s="14"/>
+      <c r="E398" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F398" s="34"/>
       <c r="G398" s="35"/>
       <c r="H398" s="24"/>
@@ -12901,7 +13647,9 @@
       <c r="D399" t="s" s="18">
         <v>1149</v>
       </c>
-      <c r="E399" s="14"/>
+      <c r="E399" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F399" s="34"/>
       <c r="G399" s="35"/>
       <c r="H399" s="24"/>
@@ -12920,7 +13668,9 @@
       <c r="D400" t="s" s="18">
         <v>1152</v>
       </c>
-      <c r="E400" s="14"/>
+      <c r="E400" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F400" s="34"/>
       <c r="G400" s="35"/>
       <c r="H400" s="24"/>
@@ -12939,7 +13689,9 @@
       <c r="D401" t="s" s="18">
         <v>1155</v>
       </c>
-      <c r="E401" s="14"/>
+      <c r="E401" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F401" s="34"/>
       <c r="G401" s="35"/>
       <c r="H401" s="24"/>
@@ -12958,7 +13710,9 @@
       <c r="D402" t="s" s="18">
         <v>1158</v>
       </c>
-      <c r="E402" s="14"/>
+      <c r="E402" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F402" s="34"/>
       <c r="G402" s="35"/>
       <c r="H402" s="24"/>
@@ -12977,7 +13731,9 @@
       <c r="D403" t="s" s="18">
         <v>1161</v>
       </c>
-      <c r="E403" s="14"/>
+      <c r="E403" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F403" s="34"/>
       <c r="G403" s="35"/>
       <c r="H403" s="24"/>
@@ -12996,7 +13752,9 @@
       <c r="D404" t="s" s="18">
         <v>1164</v>
       </c>
-      <c r="E404" s="14"/>
+      <c r="E404" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F404" s="34"/>
       <c r="G404" s="35"/>
       <c r="H404" s="24"/>
@@ -13015,7 +13773,9 @@
       <c r="D405" t="s" s="18">
         <v>1167</v>
       </c>
-      <c r="E405" s="14"/>
+      <c r="E405" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F405" s="34"/>
       <c r="G405" s="35"/>
       <c r="H405" s="24"/>
@@ -13034,7 +13794,9 @@
       <c r="D406" t="s" s="18">
         <v>1170</v>
       </c>
-      <c r="E406" s="14"/>
+      <c r="E406" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F406" s="34"/>
       <c r="G406" s="35"/>
       <c r="H406" s="24"/>
@@ -13053,7 +13815,9 @@
       <c r="D407" t="s" s="18">
         <v>1173</v>
       </c>
-      <c r="E407" s="14"/>
+      <c r="E407" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F407" s="34"/>
       <c r="G407" s="35"/>
       <c r="H407" s="24"/>
@@ -13072,7 +13836,9 @@
       <c r="D408" t="s" s="18">
         <v>1176</v>
       </c>
-      <c r="E408" s="14"/>
+      <c r="E408" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F408" s="34"/>
       <c r="G408" s="35"/>
       <c r="H408" s="24"/>
@@ -13091,7 +13857,9 @@
       <c r="D409" t="s" s="18">
         <v>1179</v>
       </c>
-      <c r="E409" s="14"/>
+      <c r="E409" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F409" s="34"/>
       <c r="G409" s="35"/>
       <c r="H409" s="24"/>
@@ -13110,7 +13878,9 @@
       <c r="D410" t="s" s="18">
         <v>1182</v>
       </c>
-      <c r="E410" s="14"/>
+      <c r="E410" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F410" s="34"/>
       <c r="G410" s="35"/>
       <c r="H410" s="24"/>
@@ -13129,7 +13899,9 @@
       <c r="D411" t="s" s="18">
         <v>1185</v>
       </c>
-      <c r="E411" s="14"/>
+      <c r="E411" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F411" s="34"/>
       <c r="G411" s="35"/>
       <c r="H411" s="24"/>
@@ -13148,7 +13920,9 @@
       <c r="D412" t="s" s="18">
         <v>1188</v>
       </c>
-      <c r="E412" s="14"/>
+      <c r="E412" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F412" s="34"/>
       <c r="G412" s="35"/>
       <c r="H412" s="24"/>
@@ -13167,7 +13941,9 @@
       <c r="D413" t="s" s="18">
         <v>1191</v>
       </c>
-      <c r="E413" s="14"/>
+      <c r="E413" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F413" s="34"/>
       <c r="G413" s="35"/>
       <c r="H413" s="24"/>
@@ -13186,7 +13962,9 @@
       <c r="D414" t="s" s="18">
         <v>1194</v>
       </c>
-      <c r="E414" s="14"/>
+      <c r="E414" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F414" s="34"/>
       <c r="G414" s="35"/>
       <c r="H414" s="24"/>
@@ -13205,7 +13983,9 @@
       <c r="D415" t="s" s="18">
         <v>1197</v>
       </c>
-      <c r="E415" s="14"/>
+      <c r="E415" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F415" s="34"/>
       <c r="G415" s="35"/>
       <c r="H415" s="24"/>
@@ -13224,7 +14004,9 @@
       <c r="D416" t="s" s="18">
         <v>1200</v>
       </c>
-      <c r="E416" s="14"/>
+      <c r="E416" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F416" s="34"/>
       <c r="G416" s="35"/>
       <c r="H416" s="24"/>
@@ -13243,7 +14025,9 @@
       <c r="D417" t="s" s="18">
         <v>1203</v>
       </c>
-      <c r="E417" s="14"/>
+      <c r="E417" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F417" s="34"/>
       <c r="G417" s="35"/>
       <c r="H417" s="24"/>
@@ -13262,7 +14046,9 @@
       <c r="D418" t="s" s="18">
         <v>1206</v>
       </c>
-      <c r="E418" s="14"/>
+      <c r="E418" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F418" s="34"/>
       <c r="G418" s="35"/>
       <c r="H418" s="24"/>
@@ -13281,7 +14067,9 @@
       <c r="D419" t="s" s="18">
         <v>1209</v>
       </c>
-      <c r="E419" s="14"/>
+      <c r="E419" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F419" s="34"/>
       <c r="G419" s="35"/>
       <c r="H419" s="24"/>
@@ -13300,7 +14088,9 @@
       <c r="D420" t="s" s="18">
         <v>1212</v>
       </c>
-      <c r="E420" s="14"/>
+      <c r="E420" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F420" s="34"/>
       <c r="G420" s="35"/>
       <c r="H420" s="24"/>
@@ -13319,7 +14109,9 @@
       <c r="D421" t="s" s="18">
         <v>1215</v>
       </c>
-      <c r="E421" s="14"/>
+      <c r="E421" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F421" s="34"/>
       <c r="G421" s="35"/>
       <c r="H421" s="24"/>
@@ -13338,7 +14130,9 @@
       <c r="D422" t="s" s="18">
         <v>1218</v>
       </c>
-      <c r="E422" s="14"/>
+      <c r="E422" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F422" s="34"/>
       <c r="G422" s="35"/>
       <c r="H422" s="24"/>
@@ -13357,7 +14151,9 @@
       <c r="D423" t="s" s="18">
         <v>1221</v>
       </c>
-      <c r="E423" s="14"/>
+      <c r="E423" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F423" s="34"/>
       <c r="G423" s="35"/>
       <c r="H423" s="24"/>
@@ -13376,7 +14172,9 @@
       <c r="D424" t="s" s="18">
         <v>1224</v>
       </c>
-      <c r="E424" s="14"/>
+      <c r="E424" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F424" s="34"/>
       <c r="G424" s="35"/>
       <c r="H424" s="24"/>
@@ -13395,7 +14193,9 @@
       <c r="D425" t="s" s="18">
         <v>1227</v>
       </c>
-      <c r="E425" s="14"/>
+      <c r="E425" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F425" s="34"/>
       <c r="G425" s="35"/>
       <c r="H425" s="24"/>
@@ -13414,7 +14214,9 @@
       <c r="D426" t="s" s="18">
         <v>1230</v>
       </c>
-      <c r="E426" s="14"/>
+      <c r="E426" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F426" s="34"/>
       <c r="G426" s="35"/>
       <c r="H426" s="24"/>
@@ -13433,7 +14235,9 @@
       <c r="D427" t="s" s="18">
         <v>1233</v>
       </c>
-      <c r="E427" s="14"/>
+      <c r="E427" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F427" s="34"/>
       <c r="G427" s="35"/>
       <c r="H427" s="24"/>
@@ -13452,7 +14256,9 @@
       <c r="D428" t="s" s="18">
         <v>1236</v>
       </c>
-      <c r="E428" s="14"/>
+      <c r="E428" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F428" s="34"/>
       <c r="G428" s="35"/>
       <c r="H428" s="24"/>
@@ -13471,7 +14277,9 @@
       <c r="D429" t="s" s="18">
         <v>1239</v>
       </c>
-      <c r="E429" s="14"/>
+      <c r="E429" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F429" s="34"/>
       <c r="G429" s="35"/>
       <c r="H429" s="24"/>
@@ -13490,7 +14298,9 @@
       <c r="D430" t="s" s="18">
         <v>1242</v>
       </c>
-      <c r="E430" s="14"/>
+      <c r="E430" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F430" s="34"/>
       <c r="G430" s="35"/>
       <c r="H430" s="24"/>
@@ -13509,7 +14319,9 @@
       <c r="D431" t="s" s="18">
         <v>1245</v>
       </c>
-      <c r="E431" s="14"/>
+      <c r="E431" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F431" s="34"/>
       <c r="G431" s="35"/>
       <c r="H431" s="24"/>
@@ -13528,7 +14340,9 @@
       <c r="D432" t="s" s="18">
         <v>1248</v>
       </c>
-      <c r="E432" s="14"/>
+      <c r="E432" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F432" s="34"/>
       <c r="G432" s="35"/>
       <c r="H432" s="24"/>
@@ -13547,7 +14361,9 @@
       <c r="D433" t="s" s="18">
         <v>1251</v>
       </c>
-      <c r="E433" s="14"/>
+      <c r="E433" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F433" s="34"/>
       <c r="G433" s="35"/>
       <c r="H433" s="24"/>
@@ -13566,7 +14382,9 @@
       <c r="D434" t="s" s="18">
         <v>1254</v>
       </c>
-      <c r="E434" s="14"/>
+      <c r="E434" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F434" s="34"/>
       <c r="G434" s="35"/>
       <c r="H434" s="24"/>
@@ -13585,7 +14403,9 @@
       <c r="D435" t="s" s="18">
         <v>1257</v>
       </c>
-      <c r="E435" s="14"/>
+      <c r="E435" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F435" s="34"/>
       <c r="G435" s="35"/>
       <c r="H435" s="24"/>
@@ -13604,7 +14424,9 @@
       <c r="D436" t="s" s="18">
         <v>1260</v>
       </c>
-      <c r="E436" s="14"/>
+      <c r="E436" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F436" s="34"/>
       <c r="G436" s="35"/>
       <c r="H436" s="24"/>
@@ -13623,7 +14445,9 @@
       <c r="D437" t="s" s="18">
         <v>1263</v>
       </c>
-      <c r="E437" s="14"/>
+      <c r="E437" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F437" s="34"/>
       <c r="G437" s="35"/>
       <c r="H437" s="24"/>
@@ -13642,7 +14466,9 @@
       <c r="D438" t="s" s="18">
         <v>1266</v>
       </c>
-      <c r="E438" s="14"/>
+      <c r="E438" t="s" s="18">
+        <v>8</v>
+      </c>
       <c r="F438" s="34"/>
       <c r="G438" s="35"/>
       <c r="H438" s="24"/>
@@ -13661,7 +14487,9 @@
       <c r="D439" t="s" s="29">
         <v>1269</v>
       </c>
-      <c r="E439" s="21"/>
+      <c r="E439" t="s" s="29">
+        <v>8</v>
+      </c>
       <c r="F439" s="34"/>
       <c r="G439" s="35"/>
       <c r="H439" s="24"/>
